--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
@@ -814,10 +814,10 @@
         <v>11</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X3" t="n">
         <v>23</v>
@@ -841,7 +841,7 @@
         <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.17</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L6" t="n">
         <v>1.73</v>
@@ -1156,16 +1156,16 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R6" t="n">
         <v>2.5</v>
@@ -1177,7 +1177,7 @@
         <v>6.5</v>
       </c>
       <c r="U6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V6" t="n">
         <v>15</v>
@@ -1192,7 +1192,7 @@
         <v>51</v>
       </c>
       <c r="Z6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
@@ -1204,7 +1204,7 @@
         <v>101</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J10" t="n">
         <v>1.05</v>
@@ -1677,28 +1677,28 @@
         <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>29</v>
@@ -2132,10 +2132,10 @@
         <v>2.63</v>
       </c>
       <c r="N14" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P14" t="n">
         <v>1.53</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
         <v>1.06</v>
@@ -2394,19 +2394,19 @@
         <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U16" t="n">
         <v>12</v>
       </c>
       <c r="V16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W16" t="n">
         <v>23</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
         <v>29</v>
@@ -2424,7 +2424,7 @@
         <v>41</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -2736,16 +2736,16 @@
         <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N19" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P19" t="n">
         <v>1.57</v>
@@ -3236,10 +3236,10 @@
         <v>2.5</v>
       </c>
       <c r="P23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R23" t="n">
         <v>1.57</v>
@@ -3263,16 +3263,16 @@
         <v>34</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
         <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
         <v>41</v>
@@ -3281,7 +3281,7 @@
         <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
         <v>8.5</v>
@@ -3293,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>126</v>
@@ -3346,16 +3346,16 @@
         <v>11</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N24" t="n">
         <v>1.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3578,49 +3578,49 @@
         <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N26" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S26" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V26" t="n">
         <v>10</v>
-      </c>
-      <c r="V26" t="n">
-        <v>9.5</v>
       </c>
       <c r="W26" t="n">
         <v>21</v>
@@ -3629,40 +3629,40 @@
         <v>21</v>
       </c>
       <c r="Y26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA26" t="n">
         <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH26" t="n">
         <v>34</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>29</v>
       </c>
       <c r="AI26" t="n">
         <v>41</v>
       </c>
       <c r="AJ26" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27">
@@ -3828,10 +3828,10 @@
         <v>4.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
         <v>1.44</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="H30" t="n">
         <v>6.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -4084,16 +4084,16 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S30" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T30" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U30" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="V30" t="n">
         <v>55</v>
@@ -4105,22 +4105,22 @@
         <v>300</v>
       </c>
       <c r="Y30" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC30" t="n">
         <v>120</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE30" t="n">
         <v>5.4</v>
@@ -4135,7 +4135,7 @@
         <v>9.25</v>
       </c>
       <c r="AI30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
         <v>101</v>
@@ -4660,22 +4660,22 @@
         <v>6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M35" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="N35" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O35" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P35" t="n">
         <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R35" t="n">
         <v>1.93</v>
@@ -5148,16 +5148,16 @@
         <v>13</v>
       </c>
       <c r="L39" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
         <v>1.33</v>
@@ -5276,10 +5276,10 @@
         <v>2.77</v>
       </c>
       <c r="N40" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P40" t="n">
         <v>1.52</v>
@@ -5297,7 +5297,7 @@
         <v>8</v>
       </c>
       <c r="U40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V40" t="n">
         <v>11</v>
@@ -5327,7 +5327,7 @@
         <v>8</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF40" t="n">
         <v>11</v>
@@ -5398,10 +5398,10 @@
         <v>3.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O41" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P41" t="n">
         <v>1.36</v>
@@ -5416,7 +5416,7 @@
         <v>1.83</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U41" t="n">
         <v>8</v>
@@ -5574,13 +5574,13 @@
         <v>6.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG42" t="n">
         <v>9</v>
       </c>
       <c r="AH42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI42" t="n">
         <v>29</v>
@@ -5752,10 +5752,10 @@
         <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L44" t="n">
         <v>1.5</v>
@@ -5764,10 +5764,10 @@
         <v>2.5</v>
       </c>
       <c r="N44" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P44" t="n">
         <v>1.57</v>
@@ -6148,7 +6148,7 @@
         <v>1.91</v>
       </c>
       <c r="T47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U47" t="n">
         <v>15</v>
@@ -6178,10 +6178,10 @@
         <v>51</v>
       </c>
       <c r="AD47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF47" t="n">
         <v>10</v>
@@ -6356,10 +6356,10 @@
         <v>1.8</v>
       </c>
       <c r="H49" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
@@ -6395,7 +6395,7 @@
         <v>8.5</v>
       </c>
       <c r="U49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V49" t="n">
         <v>8.5</v>
@@ -6416,7 +6416,7 @@
         <v>7</v>
       </c>
       <c r="AB49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC49" t="n">
         <v>41</v>
@@ -6425,7 +6425,7 @@
         <v>13</v>
       </c>
       <c r="AE49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF49" t="n">
         <v>13</v>
@@ -6434,7 +6434,7 @@
         <v>41</v>
       </c>
       <c r="AH49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI49" t="n">
         <v>34</v>
@@ -6841,16 +6841,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I53" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J53" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K53" t="n">
         <v>6.7</v>
@@ -6877,7 +6877,7 @@
         <v>1.65</v>
       </c>
       <c r="S53" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T53" t="n">
         <v>7.7</v>
@@ -6886,31 +6886,31 @@
         <v>11.25</v>
       </c>
       <c r="V53" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W53" t="n">
         <v>23</v>
       </c>
       <c r="X53" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z53" t="n">
         <v>6.7</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB53" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC53" t="n">
         <v>50</v>
       </c>
       <c r="AD53" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AE53" t="n">
         <v>21</v>
@@ -6925,7 +6925,7 @@
         <v>32</v>
       </c>
       <c r="AI53" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ53" t="n">
         <v>350</v>
@@ -6990,10 +6990,10 @@
         <v>2.7</v>
       </c>
       <c r="P54" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R54" t="n">
         <v>1.62</v>
@@ -7002,7 +7002,7 @@
         <v>2.2</v>
       </c>
       <c r="T54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U54" t="n">
         <v>41</v>
@@ -7038,19 +7038,19 @@
         <v>8.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH54" t="n">
         <v>11</v>
       </c>
       <c r="AI54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ54" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55">
@@ -7203,21 +7203,21 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="H56" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M56" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="N56" t="n">
         <v>2.18</v>
@@ -7238,19 +7238,19 @@
         <v>1.65</v>
       </c>
       <c r="T56" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U56" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="V56" t="n">
         <v>9.25</v>
       </c>
       <c r="W56" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="X56" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y56" t="n">
         <v>37</v>
@@ -7268,19 +7268,19 @@
         <v>110</v>
       </c>
       <c r="AD56" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AE56" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF56" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG56" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH56" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI56" t="n">
         <v>50</v>
@@ -7321,33 +7321,33 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H57" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M57" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="N57" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="O57" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P57" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R57" t="n">
         <v>1.98</v>
@@ -7356,49 +7356,49 @@
         <v>1.65</v>
       </c>
       <c r="T57" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U57" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="V57" t="n">
         <v>8.25</v>
       </c>
       <c r="W57" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="X57" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y57" t="n">
         <v>32</v>
       </c>
       <c r="Z57" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA57" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AB57" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD57" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AE57" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF57" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG57" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AH57" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI57" t="n">
         <v>65</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -668,10 +668,10 @@
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1302,7 +1302,7 @@
         <v>9.5</v>
       </c>
       <c r="V7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W7" t="n">
         <v>17</v>
@@ -1317,19 +1317,19 @@
         <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
         <v>41</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>13</v>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
         <v>1.29</v>
@@ -1457,7 +1457,7 @@
         <v>9.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>19</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1522,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P9" t="n">
         <v>1.29</v>
@@ -1540,7 +1540,7 @@
         <v>2.25</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U9" t="n">
         <v>9.5</v>
@@ -1564,7 +1564,7 @@
         <v>7.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2010,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P13" t="n">
         <v>1.44</v>
@@ -2031,16 +2031,16 @@
         <v>8</v>
       </c>
       <c r="U13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>34</v>
@@ -2061,16 +2061,16 @@
         <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>34</v>
@@ -2242,10 +2242,10 @@
         <v>5.25</v>
       </c>
       <c r="J15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
         <v>1.5</v>
@@ -2254,10 +2254,10 @@
         <v>2.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P15" t="n">
         <v>1.57</v>
@@ -2486,10 +2486,10 @@
         <v>2.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
         <v>1.3</v>
@@ -2528,7 +2528,7 @@
         <v>29</v>
       </c>
       <c r="X17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
         <v>29</v>
@@ -2540,7 +2540,7 @@
         <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
         <v>41</v>
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
         <v>1.36</v>
@@ -2885,16 +2885,16 @@
         <v>7</v>
       </c>
       <c r="U20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
         <v>29</v>
@@ -2912,13 +2912,13 @@
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
         <v>41</v>
@@ -2974,22 +2974,22 @@
         <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P21" t="n">
         <v>1.36</v>
@@ -3019,16 +3019,16 @@
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
         <v>7.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
         <v>51</v>
@@ -3331,19 +3331,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
         <v>4.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L24" t="n">
         <v>1.25</v>
@@ -3352,16 +3352,16 @@
         <v>3.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O24" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="P24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
         <v>1.8</v>
@@ -3370,7 +3370,7 @@
         <v>1.95</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
         <v>8</v>
@@ -3382,7 +3382,7 @@
         <v>13</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
         <v>26</v>
@@ -3453,25 +3453,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N25" t="n">
         <v>2.05</v>
@@ -3486,16 +3486,16 @@
         <v>2.63</v>
       </c>
       <c r="R25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V25" t="n">
         <v>8.5</v>
@@ -3519,7 +3519,7 @@
         <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD25" t="n">
         <v>15</v>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
@@ -3584,10 +3584,10 @@
         <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.44</v>
@@ -3632,13 +3632,13 @@
         <v>41</v>
       </c>
       <c r="Z26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA26" t="n">
         <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC26" t="n">
         <v>67</v>
@@ -3706,10 +3706,10 @@
         <v>2.25</v>
       </c>
       <c r="J27" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.53</v>
@@ -3941,31 +3941,31 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H29" t="n">
         <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M29" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P29" t="n">
         <v>1.5</v>
@@ -3986,7 +3986,7 @@
         <v>19</v>
       </c>
       <c r="V29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
         <v>41</v>
@@ -4007,10 +4007,10 @@
         <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE29" t="n">
         <v>8.5</v>
@@ -4022,7 +4022,7 @@
         <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI29" t="n">
         <v>34</v>
@@ -4063,40 +4063,40 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H30" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I30" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="O30" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="S30" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T30" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="U30" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="V30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="W30" t="n">
         <v>500</v>
@@ -4105,37 +4105,37 @@
         <v>300</v>
       </c>
       <c r="Y30" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Z30" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG30" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ30" t="n">
         <v>101</v>
@@ -4767,70 +4767,70 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="H36" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
         <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
         <v>1.73</v>
       </c>
-      <c r="O36" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S36" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V36" t="n">
         <v>8.5</v>
       </c>
       <c r="W36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
         <v>23</v>
       </c>
       <c r="Z36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
         <v>51</v>
@@ -4839,13 +4839,13 @@
         <v>13</v>
       </c>
       <c r="AE36" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AF36" t="n">
         <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="n">
         <v>34</v>
@@ -5032,10 +5032,10 @@
         <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O38" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
         <v>1.4</v>
@@ -5398,10 +5398,10 @@
         <v>3.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P41" t="n">
         <v>1.36</v>
@@ -5987,19 +5987,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H46" t="n">
         <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J46" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K46" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.25</v>
@@ -6008,10 +6008,10 @@
         <v>3.75</v>
       </c>
       <c r="N46" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O46" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P46" t="n">
         <v>1.4</v>
@@ -6041,7 +6041,7 @@
         <v>19</v>
       </c>
       <c r="Y46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z46" t="n">
         <v>11</v>
@@ -6056,7 +6056,7 @@
         <v>41</v>
       </c>
       <c r="AD46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE46" t="n">
         <v>15</v>
@@ -6065,7 +6065,7 @@
         <v>11</v>
       </c>
       <c r="AG46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH46" t="n">
         <v>21</v>
@@ -6109,19 +6109,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J47" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L47" t="n">
         <v>1.3</v>
@@ -6148,22 +6148,22 @@
         <v>1.91</v>
       </c>
       <c r="T47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V47" t="n">
         <v>11</v>
       </c>
       <c r="W47" t="n">
+        <v>26</v>
+      </c>
+      <c r="X47" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y47" t="n">
         <v>29</v>
-      </c>
-      <c r="X47" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>34</v>
       </c>
       <c r="Z47" t="n">
         <v>10</v>
@@ -6178,19 +6178,19 @@
         <v>51</v>
       </c>
       <c r="AD47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF47" t="n">
         <v>10</v>
       </c>
       <c r="AG47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH47" t="n">
         <v>21</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>19</v>
       </c>
       <c r="AI47" t="n">
         <v>29</v>
@@ -6231,25 +6231,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H48" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.02</v>
+        <v>23</v>
       </c>
       <c r="K48" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="L48" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M48" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N48" t="n">
         <v>1.4</v>
@@ -6264,22 +6264,22 @@
         <v>4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S48" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T48" t="n">
         <v>13</v>
       </c>
       <c r="U48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X48" t="n">
         <v>13</v>
@@ -6297,22 +6297,22 @@
         <v>12</v>
       </c>
       <c r="AC48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG48" t="n">
         <v>34</v>
       </c>
-      <c r="AD48" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>41</v>
-      </c>
       <c r="AH48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI48" t="n">
         <v>23</v>
@@ -6353,13 +6353,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I49" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4.1</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
@@ -6380,10 +6380,10 @@
         <v>2.08</v>
       </c>
       <c r="P49" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q49" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
         <v>1.67</v>
@@ -6395,22 +6395,22 @@
         <v>8.5</v>
       </c>
       <c r="U49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V49" t="n">
         <v>8.5</v>
       </c>
       <c r="W49" t="n">
+        <v>17</v>
+      </c>
+      <c r="X49" t="n">
         <v>15</v>
-      </c>
-      <c r="X49" t="n">
-        <v>13</v>
       </c>
       <c r="Y49" t="n">
         <v>23</v>
       </c>
       <c r="Z49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA49" t="n">
         <v>7</v>
@@ -6841,16 +6841,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H53" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="I53" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J53" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K53" t="n">
         <v>6.7</v>
@@ -6871,28 +6871,28 @@
         <v>1.47</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R53" t="n">
         <v>1.65</v>
       </c>
       <c r="S53" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T53" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U53" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V53" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W53" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X53" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y53" t="n">
         <v>25</v>
@@ -6901,22 +6901,22 @@
         <v>6.7</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB53" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC53" t="n">
         <v>50</v>
       </c>
       <c r="AD53" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AE53" t="n">
         <v>21</v>
       </c>
       <c r="AF53" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG53" t="n">
         <v>60</v>
@@ -6925,10 +6925,10 @@
         <v>32</v>
       </c>
       <c r="AI53" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ53" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54">
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H54" t="n">
         <v>4.75</v>
       </c>
       <c r="I54" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J54" t="n">
         <v>1.02</v>
@@ -6996,13 +6996,13 @@
         <v>3.75</v>
       </c>
       <c r="R54" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S54" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U54" t="n">
         <v>41</v>
@@ -7038,7 +7038,7 @@
         <v>8.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG54" t="n">
         <v>10</v>
@@ -7203,90 +7203,90 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="I56" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M56" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="N56" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P56" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="R56" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="S56" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="T56" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U56" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="V56" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W56" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="X56" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y56" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z56" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA56" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB56" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE56" t="n">
         <v>18</v>
       </c>
-      <c r="AC56" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>15</v>
-      </c>
       <c r="AF56" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG56" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI56" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ56" t="n">
-        <v>101</v>
+        <v>700</v>
       </c>
     </row>
     <row r="57">

--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ57"/>
+  <dimension ref="A1:AJ71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +811,7 @@
         <v>6.5</v>
       </c>
       <c r="U3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>6.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -1100,7 +1100,7 @@
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6">
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -2001,7 +2001,7 @@
         <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>1.08</v>
@@ -2126,10 +2126,10 @@
         <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N14" t="n">
         <v>2.35</v>
@@ -2138,10 +2138,10 @@
         <v>1.57</v>
       </c>
       <c r="P14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
         <v>2.5</v>
@@ -2153,16 +2153,16 @@
         <v>5</v>
       </c>
       <c r="U14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V14" t="n">
         <v>9.5</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
         <v>41</v>
@@ -2174,22 +2174,22 @@
         <v>7.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
         <v>101</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="n">
         <v>51</v>
@@ -2326,7 +2326,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dIEAtKzg</t>
+          <t>xhQgbu5b</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2336,119 +2336,117 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COSTA RICA - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>San Carlos</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EL Nacional</t>
+          <t>Zeledon</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K16" t="n">
+        <v>7</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T16" t="n">
+        <v>6</v>
+      </c>
+      <c r="U16" t="n">
         <v>9.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>12</v>
       </c>
       <c r="V16" t="n">
         <v>10</v>
       </c>
       <c r="W16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X16" t="n">
         <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="n">
         <v>6</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>201</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GOU7pRFj</t>
+          <t>OzTrN4jB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2458,80 +2456,80 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.98</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.88</v>
-      </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
@@ -2540,37 +2538,37 @@
         <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
         <v>12</v>
       </c>
-      <c r="AF17" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AG17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH17" t="n">
         <v>23</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GGCzVb8r</t>
+          <t>dIEAtKzg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2580,119 +2578,119 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>EL Nacional</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I18" t="n">
         <v>3</v>
       </c>
-      <c r="I18" t="n">
-        <v>3.7</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N18" t="n">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="P18" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="T18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X18" t="n">
         <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AH18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI18" t="n">
         <v>34</v>
       </c>
-      <c r="AI18" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OtGrTxwe</t>
+          <t>GOU7pRFj</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2702,119 +2700,119 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="J19" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>2.6</v>
+        <v>1.98</v>
       </c>
       <c r="O19" t="n">
-        <v>1.48</v>
+        <v>1.88</v>
       </c>
       <c r="P19" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>15</v>
+      </c>
+      <c r="V19" t="n">
+        <v>11</v>
+      </c>
+      <c r="W19" t="n">
+        <v>29</v>
+      </c>
+      <c r="X19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="n">
         <v>8.5</v>
       </c>
-      <c r="U19" t="n">
-        <v>17</v>
-      </c>
-      <c r="V19" t="n">
-        <v>13</v>
-      </c>
-      <c r="W19" t="n">
-        <v>41</v>
-      </c>
-      <c r="X19" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH19" t="n">
         <v>19</v>
       </c>
-      <c r="AC19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>21</v>
-      </c>
       <c r="AI19" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AZewkKaE</t>
+          <t>GGCzVb8r</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2834,88 +2832,88 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.67</v>
       </c>
-      <c r="P20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
         <v>19</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
@@ -2930,13 +2928,13 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C0HJUkEa</t>
+          <t>OtGrTxwe</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2956,109 +2954,109 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.48</v>
       </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2.03</v>
-      </c>
       <c r="P21" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="U21" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="V21" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
         <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG21" t="n">
         <v>19</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
         <v>41</v>
       </c>
-      <c r="AF21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>301</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ddRJUUd2</t>
+          <t>AZewkKaE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3078,109 +3076,109 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="O22" t="n">
-        <v>2.35</v>
+        <v>1.67</v>
       </c>
       <c r="P22" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T22" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="U22" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="V22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB22" t="n">
         <v>15</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>17</v>
       </c>
       <c r="AC22" t="n">
         <v>51</v>
       </c>
       <c r="AD22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE22" t="n">
         <v>19</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AF22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH22" t="n">
         <v>34</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>41</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jmGjjK7E</t>
+          <t>C0HJUkEa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3190,119 +3188,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SG Dynamo Dresden</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>1.48</v>
       </c>
       <c r="H23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.62</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
+        <v>11</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T23" t="n">
+        <v>7</v>
+      </c>
+      <c r="U23" t="n">
+        <v>7</v>
+      </c>
+      <c r="V23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD23" t="n">
         <v>19</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T23" t="n">
-        <v>17</v>
-      </c>
-      <c r="U23" t="n">
-        <v>26</v>
-      </c>
-      <c r="V23" t="n">
-        <v>15</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="AE23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH23" t="n">
         <v>51</v>
       </c>
-      <c r="X23" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>12</v>
-      </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AJ23" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jLVqcE5s</t>
+          <t>ddRJUUd2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3312,104 +3310,104 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="M24" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="O24" t="n">
-        <v>2.03</v>
+        <v>2.35</v>
       </c>
       <c r="P24" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R24" t="n">
         <v>1.8</v>
       </c>
       <c r="S24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U24" t="n">
         <v>7.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>8</v>
       </c>
       <c r="V24" t="n">
         <v>8.5</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH24" t="n">
         <v>41</v>
@@ -3418,13 +3416,13 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>865ooclJ</t>
+          <t>2F1Q4Fqn</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3434,119 +3432,115 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>FRANCE - NATIONAL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V25" t="n">
+        <v>9</v>
+      </c>
+      <c r="W25" t="n">
+        <v>21</v>
+      </c>
+      <c r="X25" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD25" t="n">
         <v>8.5</v>
       </c>
-      <c r="L25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T25" t="n">
-        <v>6</v>
-      </c>
-      <c r="U25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>10</v>
-      </c>
-      <c r="X25" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>15</v>
-      </c>
       <c r="AE25" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AI25" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AJ25" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nmPhehzf</t>
+          <t>Wfgs1XrB</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3556,119 +3550,119 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>FRANCE - NATIONAL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Bourg en Bresse</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="J26" t="n">
         <v>1.11</v>
       </c>
       <c r="K26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="N26" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
         <v>1.57</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="R26" t="n">
         <v>2.05</v>
       </c>
       <c r="S26" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="T26" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="U26" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AH26" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AI26" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AJ26" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>K0N0gW46</t>
+          <t>OhYLgkyo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3678,119 +3672,115 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>FRANCE - NATIONAL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2.25</v>
       </c>
-      <c r="J27" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R27" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="S27" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="T27" t="n">
         <v>7.5</v>
       </c>
       <c r="U27" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="V27" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="W27" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="X27" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Y27" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="AE27" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AH27" t="n">
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AJ27" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GSG9iAZI</t>
+          <t>zTaY2gEb</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3800,119 +3790,115 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>FRANCE - NATIONAL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K28" t="n">
-        <v>8</v>
-      </c>
+        <v>3.7</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.44</v>
       </c>
-      <c r="M28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q28" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="R28" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S28" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="U28" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="V28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z28" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AI28" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AJ28" t="n">
-        <v>501</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CAvtjC6r</t>
+          <t>UkL7HhTi</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3922,119 +3908,115 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>FRANCE - NATIONAL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Aubagne</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>1.62</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K29" t="n">
-        <v>9</v>
-      </c>
+        <v>5.2</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1.36</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="N29" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O29" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P29" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S29" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="T29" t="n">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="U29" t="n">
-        <v>19</v>
+        <v>6.6</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>41</v>
+        <v>11.25</v>
       </c>
       <c r="X29" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Z29" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC29" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>8.5</v>
+        <v>28</v>
       </c>
       <c r="AF29" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AI29" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="n">
-        <v>401</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KpgN6Qj2</t>
+          <t>QHEGFWc4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4044,107 +4026,115 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>FRANCE - NATIONAL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>Paris 13 Atl.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>21</v>
+        <v>3.35</v>
       </c>
       <c r="H30" t="n">
-        <v>6.7</v>
+        <v>3.05</v>
       </c>
       <c r="I30" t="n">
-        <v>1.09</v>
+        <v>2.15</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.55</v>
+      </c>
       <c r="N30" t="n">
-        <v>1.32</v>
+        <v>2.15</v>
       </c>
       <c r="O30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+        <v>1.55</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.27</v>
+      </c>
       <c r="R30" t="n">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="S30" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="T30" t="n">
-        <v>60</v>
+        <v>8.75</v>
       </c>
       <c r="U30" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="V30" t="n">
-        <v>60</v>
+        <v>11.75</v>
       </c>
       <c r="W30" t="n">
-        <v>500</v>
+        <v>45</v>
       </c>
       <c r="X30" t="n">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="Y30" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="n">
-        <v>19.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="AB30" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AC30" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE30" t="n">
-        <v>5.8</v>
+        <v>9.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG30" t="n">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AJ30" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0tW9UTr9</t>
+          <t>vLdkaBDN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4154,111 +4144,115 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>FRANCE - NATIONAL</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BFC Daugavpils</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auda</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.75</v>
+        <v>2.07</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="I31" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N31" t="n">
-        <v>1.72</v>
+        <v>2.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+        <v>1.5</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.2</v>
+      </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="S31" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="T31" t="n">
-        <v>11.25</v>
+        <v>6</v>
       </c>
       <c r="U31" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="V31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="W31" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="X31" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="n">
         <v>37</v>
       </c>
       <c r="Z31" t="n">
-        <v>10.75</v>
+        <v>7</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF31" t="n">
         <v>13</v>
       </c>
-      <c r="AC31" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="n">
-        <v>10.25</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AJ31" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MiQ1Nf14</t>
+          <t>bVCODASG</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4268,119 +4262,115 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>FRANCE - NATIONAL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="I32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K32" t="n">
-        <v>11</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M32" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="O32" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="R32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S32" t="n">
         <v>1.75</v>
       </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
       <c r="T32" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="U32" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="V32" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="W32" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="X32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z32" t="n">
-        <v>11</v>
+        <v>7.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AE32" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="AG32" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AH32" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="n">
-        <v>201</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WrXeNJFq</t>
+          <t>jmGjjK7E</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4390,111 +4380,119 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Alebrijes Oaxaca</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Atletico La Paz</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.47</v>
+        <v>4.5</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I33" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1.62</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K33" t="n">
+        <v>19</v>
+      </c>
       <c r="L33" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="M33" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O33" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.75</v>
+      </c>
       <c r="R33" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="T33" t="n">
+        <v>17</v>
+      </c>
+      <c r="U33" t="n">
+        <v>26</v>
+      </c>
+      <c r="V33" t="n">
+        <v>15</v>
+      </c>
+      <c r="W33" t="n">
+        <v>51</v>
+      </c>
+      <c r="X33" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB33" t="n">
         <v>13</v>
       </c>
-      <c r="U33" t="n">
-        <v>16</v>
-      </c>
-      <c r="V33" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W33" t="n">
-        <v>29</v>
-      </c>
-      <c r="X33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>11</v>
-      </c>
       <c r="AC33" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG33" t="n">
         <v>13</v>
       </c>
-      <c r="AE33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>29</v>
-      </c>
       <c r="AH33" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AI33" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ABZRFHhB</t>
+          <t>jLVqcE5s</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4504,119 +4502,119 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K34" t="n">
+        <v>13</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q34" t="n">
         <v>3</v>
       </c>
-      <c r="J34" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K34" t="n">
-        <v>9</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M34" t="n">
-        <v>3</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R34" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>8</v>
+      </c>
+      <c r="V34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>13</v>
+      </c>
+      <c r="X34" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA34" t="n">
         <v>7</v>
       </c>
-      <c r="U34" t="n">
-        <v>11</v>
-      </c>
-      <c r="V34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W34" t="n">
-        <v>21</v>
-      </c>
-      <c r="X34" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>6</v>
-      </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AE34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF34" t="n">
         <v>15</v>
       </c>
-      <c r="AF34" t="n">
-        <v>12</v>
-      </c>
       <c r="AG34" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AI34" t="n">
         <v>41</v>
       </c>
       <c r="AJ34" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>jTk8em7d</t>
+          <t>865ooclJ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4626,119 +4624,119 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.55</v>
+        <v>1.53</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T35" t="n">
         <v>6</v>
       </c>
-      <c r="L35" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M35" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T35" t="n">
-        <v>7</v>
-      </c>
       <c r="U35" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="V35" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="W35" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="X35" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA35" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA35" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC35" t="n">
         <v>67</v>
       </c>
       <c r="AD35" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AF35" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>h2Xn1wml</t>
+          <t>nmPhehzf</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4748,101 +4746,101 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Binacional</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ayacucho</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="K36" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="N36" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="O36" t="n">
-        <v>2.03</v>
+        <v>1.5</v>
       </c>
       <c r="P36" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R36" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T36" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="U36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V36" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W36" t="n">
+        <v>21</v>
+      </c>
+      <c r="X36" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE36" t="n">
         <v>15</v>
       </c>
-      <c r="X36" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD36" t="n">
+      <c r="AF36" t="n">
         <v>13</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>15</v>
       </c>
       <c r="AG36" t="n">
         <v>41</v>
@@ -4854,13 +4852,13 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>QFVfaHH0</t>
+          <t>K0N0gW46</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4870,119 +4868,119 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="J37" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="M37" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="N37" t="n">
-        <v>1.98</v>
+        <v>2.7</v>
       </c>
       <c r="O37" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="T37" t="n">
         <v>7.5</v>
       </c>
       <c r="U37" t="n">
+        <v>15</v>
+      </c>
+      <c r="V37" t="n">
+        <v>13</v>
+      </c>
+      <c r="W37" t="n">
+        <v>41</v>
+      </c>
+      <c r="X37" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE37" t="n">
         <v>9</v>
       </c>
-      <c r="V37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W37" t="n">
-        <v>17</v>
-      </c>
-      <c r="X37" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z37" t="n">
+      <c r="AF37" t="n">
         <v>10</v>
       </c>
-      <c r="AA37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE37" t="n">
+      <c r="AG37" t="n">
         <v>21</v>
       </c>
-      <c r="AF37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>41</v>
-      </c>
       <c r="AH37" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
         <v>41</v>
       </c>
       <c r="AJ37" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>KIfiYTXI</t>
+          <t>GSG9iAZI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4992,119 +4990,119 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K38" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="N38" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="O38" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="P38" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="R38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S38" t="n">
         <v>1.67</v>
       </c>
-      <c r="S38" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T38" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="U38" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="V38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W38" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="X38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y38" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z38" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AA38" t="n">
         <v>6.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH38" t="n">
         <v>41</v>
       </c>
-      <c r="AD38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>21</v>
-      </c>
       <c r="AI38" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AJ38" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>K8iwdXPP</t>
+          <t>CAvtjC6r</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5119,114 +5117,114 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K39" t="n">
+        <v>9</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>19</v>
+      </c>
+      <c r="V39" t="n">
         <v>13</v>
       </c>
-      <c r="L39" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T39" t="n">
-        <v>10</v>
-      </c>
-      <c r="U39" t="n">
-        <v>12</v>
-      </c>
-      <c r="V39" t="n">
-        <v>9</v>
-      </c>
       <c r="W39" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="X39" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Y39" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AA39" t="n">
         <v>6.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD39" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AE39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG39" t="n">
         <v>17</v>
       </c>
-      <c r="AF39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG39" t="n">
+      <c r="AH39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI39" t="n">
         <v>34</v>
       </c>
-      <c r="AH39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ39" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cp5LCQ5c</t>
+          <t>rqEJBF76</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5236,119 +5234,119 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Legnago Salus</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>Pianese</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="J40" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M40" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="N40" t="n">
         <v>2.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P40" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R40" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="S40" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="T40" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V40" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="W40" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="X40" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Y40" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AB40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC40" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AD40" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="AG40" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AJ40" t="n">
-        <v>301</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>xAc73MSq</t>
+          <t>xWrJDywf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5358,119 +5356,119 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Leczna</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.65</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="J41" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K41" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="L41" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="M41" t="n">
-        <v>3.75</v>
+        <v>2.87</v>
       </c>
       <c r="N41" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="O41" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="P41" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R41" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="T41" t="n">
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="U41" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="V41" t="n">
-        <v>8.5</v>
+        <v>16</v>
       </c>
       <c r="W41" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="X41" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG41" t="n">
         <v>13</v>
       </c>
-      <c r="Y41" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>51</v>
-      </c>
       <c r="AH41" t="n">
-        <v>41</v>
+        <v>14.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AJ41" t="n">
-        <v>251</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>tQdx9r5M</t>
+          <t>KpgN6Qj2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5480,119 +5478,107 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H42" t="n">
-        <v>4.1</v>
+        <v>6.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K42" t="n">
-        <v>11</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3.75</v>
-      </c>
+        <v>1.09</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>1.88</v>
+        <v>1.32</v>
       </c>
       <c r="O42" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
+        <v>3.1</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="S42" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T42" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="U42" t="n">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="V42" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="W42" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="X42" t="n">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="Y42" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AA42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD42" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE42" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AF42" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH42" t="n">
         <v>9</v>
       </c>
-      <c r="AH42" t="n">
-        <v>13</v>
-      </c>
       <c r="AI42" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ42" t="n">
-        <v>900</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sbd0HNe4</t>
+          <t>0tW9UTr9</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5602,119 +5588,111 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>BFC Daugavpils</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Auda</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="I43" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K43" t="n">
-        <v>8</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="M43" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N43" t="n">
-        <v>2.25</v>
+        <v>1.72</v>
       </c>
       <c r="O43" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.5</v>
-      </c>
+        <v>1.88</v>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T43" t="n">
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="U43" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="V43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W43" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="X43" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Y43" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z43" t="n">
-        <v>8</v>
+        <v>10.75</v>
       </c>
       <c r="AA43" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD43" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE43" t="n">
-        <v>12</v>
+        <v>6.7</v>
       </c>
       <c r="AF43" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="AG43" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AH43" t="n">
-        <v>23</v>
+        <v>10.25</v>
       </c>
       <c r="AI43" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6VUx4D9C</t>
+          <t>MiQ1Nf14</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5724,119 +5702,119 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="J44" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K44" t="n">
+        <v>11</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="n">
+        <v>11</v>
+      </c>
+      <c r="U44" t="n">
+        <v>17</v>
+      </c>
+      <c r="V44" t="n">
+        <v>12</v>
+      </c>
+      <c r="W44" t="n">
+        <v>41</v>
+      </c>
+      <c r="X44" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA44" t="n">
         <v>7</v>
       </c>
-      <c r="L44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T44" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U44" t="n">
+      <c r="AB44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD44" t="n">
         <v>8</v>
       </c>
-      <c r="V44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W44" t="n">
+      <c r="AE44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH44" t="n">
         <v>17</v>
       </c>
-      <c r="X44" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>41</v>
-      </c>
       <c r="AI44" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GQXBkEfJ</t>
+          <t>WrXeNJFq</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5846,119 +5824,111 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Alebrijes Oaxaca</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Atletico La Paz</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>7</v>
-      </c>
+        <v>2.45</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="M45" t="n">
-        <v>2.63</v>
+        <v>4.9</v>
       </c>
       <c r="N45" t="n">
-        <v>2.4</v>
+        <v>1.47</v>
       </c>
       <c r="O45" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.38</v>
-      </c>
+        <v>2.32</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>1.42</v>
       </c>
       <c r="S45" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="T45" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="U45" t="n">
+        <v>16</v>
+      </c>
+      <c r="V45" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W45" t="n">
+        <v>29</v>
+      </c>
+      <c r="X45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB45" t="n">
         <v>11</v>
       </c>
-      <c r="V45" t="n">
-        <v>10</v>
-      </c>
-      <c r="W45" t="n">
-        <v>23</v>
-      </c>
-      <c r="X45" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>17</v>
-      </c>
       <c r="AC45" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AE45" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF45" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AG45" t="n">
         <v>29</v>
       </c>
       <c r="AH45" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1250</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>YqoXEYBG</t>
+          <t>ABZRFHhB</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5968,119 +5938,119 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K46" t="n">
+        <v>9</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T46" t="n">
+        <v>7</v>
+      </c>
+      <c r="U46" t="n">
+        <v>11</v>
+      </c>
+      <c r="V46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>21</v>
+      </c>
+      <c r="X46" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD46" t="n">
         <v>8.5</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2</v>
-      </c>
-      <c r="T46" t="n">
-        <v>9</v>
-      </c>
-      <c r="U46" t="n">
-        <v>12</v>
-      </c>
-      <c r="V46" t="n">
-        <v>10</v>
-      </c>
-      <c r="W46" t="n">
-        <v>23</v>
-      </c>
-      <c r="X46" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>10</v>
       </c>
       <c r="AE46" t="n">
         <v>15</v>
       </c>
       <c r="AF46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH46" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI46" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ46" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>xfw0GQVN</t>
+          <t>jTk8em7d</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6090,68 +6060,68 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I47" t="n">
         <v>2.7</v>
       </c>
-      <c r="H47" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.45</v>
-      </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="K47" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="M47" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N47" t="n">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="O47" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="P47" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R47" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S47" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="T47" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U47" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V47" t="n">
         <v>11</v>
@@ -6160,49 +6130,49 @@
         <v>26</v>
       </c>
       <c r="X47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y47" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z47" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD47" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE47" t="n">
         <v>12</v>
       </c>
       <c r="AF47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG47" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH47" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI47" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ47" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8xUVA4go</t>
+          <t>h2Xn1wml</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6212,119 +6182,119 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Binacional</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Ayacucho</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H48" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I48" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="J48" t="n">
-        <v>23</v>
+        <v>1.04</v>
       </c>
       <c r="K48" t="n">
-        <v>1.03</v>
+        <v>13</v>
       </c>
       <c r="L48" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="M48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N48" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="O48" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="P48" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R48" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="S48" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T48" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U48" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="V48" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W48" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X48" t="n">
         <v>13</v>
       </c>
       <c r="Y48" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Z48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE48" t="n">
         <v>23</v>
       </c>
-      <c r="AA48" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>21</v>
-      </c>
       <c r="AF48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH48" t="n">
         <v>34</v>
       </c>
-      <c r="AH48" t="n">
-        <v>21</v>
-      </c>
       <c r="AI48" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AJ48" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>l6GYhrXq</t>
+          <t>QFVfaHH0</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6334,68 +6304,68 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H49" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K49" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L49" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N49" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="O49" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="P49" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R49" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S49" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T49" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V49" t="n">
         <v>8.5</v>
@@ -6407,46 +6377,46 @@
         <v>15</v>
       </c>
       <c r="Y49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD49" t="n">
         <v>12</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>13</v>
       </c>
       <c r="AE49" t="n">
         <v>21</v>
       </c>
       <c r="AF49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG49" t="n">
         <v>41</v>
       </c>
       <c r="AH49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ49" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SbrhrHs0</t>
+          <t>KIfiYTXI</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6456,119 +6426,119 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Cracovia</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.92</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I50" t="n">
-        <v>2.27</v>
+        <v>2.7</v>
       </c>
       <c r="J50" t="n">
         <v>1.05</v>
       </c>
       <c r="K50" t="n">
-        <v>7.7</v>
+        <v>11</v>
       </c>
       <c r="L50" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M50" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N50" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O50" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P50" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="R50" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S50" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T50" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>13</v>
+      </c>
+      <c r="V50" t="n">
         <v>10</v>
       </c>
-      <c r="U50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="V50" t="n">
-        <v>10.25</v>
-      </c>
       <c r="W50" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="X50" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Y50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z50" t="n">
-        <v>7.7</v>
+        <v>11</v>
       </c>
       <c r="AA50" t="n">
         <v>6.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC50" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AD50" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AE50" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AF50" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AG50" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH50" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI50" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ50" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0pSB2oTE</t>
+          <t>K8iwdXPP</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6578,119 +6548,119 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K51" t="n">
+        <v>13</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M51" t="n">
         <v>4</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K51" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M51" t="n">
-        <v>3.45</v>
       </c>
       <c r="N51" t="n">
         <v>1.8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R51" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T51" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="U51" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="V51" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="W51" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="X51" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y51" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z51" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC51" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AD51" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH51" t="n">
         <v>23</v>
       </c>
-      <c r="AF51" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>35</v>
-      </c>
       <c r="AI51" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AJ51" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>OQy1teCC</t>
+          <t>Cp5LCQ5c</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6700,119 +6670,119 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Pruszkow</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.32</v>
+        <v>2.63</v>
       </c>
       <c r="H52" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>8.5</v>
+        <v>2.63</v>
       </c>
       <c r="J52" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="K52" t="n">
-        <v>8.75</v>
+        <v>6.2</v>
       </c>
       <c r="L52" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>2.77</v>
       </c>
       <c r="N52" t="n">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="O52" t="n">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="P52" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.1</v>
+        <v>2.37</v>
       </c>
       <c r="R52" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="S52" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="T52" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="U52" t="n">
-        <v>6.4</v>
+        <v>13</v>
       </c>
       <c r="V52" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W52" t="n">
+        <v>26</v>
+      </c>
+      <c r="X52" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z52" t="n">
         <v>8</v>
       </c>
-      <c r="X52" t="n">
+      <c r="AA52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF52" t="n">
         <v>11</v>
       </c>
-      <c r="Y52" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD52" t="n">
+      <c r="AG52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH52" t="n">
         <v>23</v>
       </c>
-      <c r="AE52" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>100</v>
-      </c>
       <c r="AI52" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AJ52" t="n">
-        <v>800</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>jLcGOmDt</t>
+          <t>xAc73MSq</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6822,119 +6792,119 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Chiangrai Utd</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nong Bua Pitchaya</t>
+          <t>Leczna</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="H53" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="I53" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="J53" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K53" t="n">
-        <v>6.7</v>
+        <v>11</v>
       </c>
       <c r="L53" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="M53" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="N53" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O53" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="P53" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="S53" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T53" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U53" t="n">
+        <v>8</v>
+      </c>
+      <c r="V53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W53" t="n">
+        <v>12</v>
+      </c>
+      <c r="X53" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z53" t="n">
         <v>11</v>
       </c>
-      <c r="V53" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W53" t="n">
-        <v>22</v>
-      </c>
-      <c r="X53" t="n">
+      <c r="AA53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB53" t="n">
         <v>17</v>
       </c>
-      <c r="Y53" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>12</v>
-      </c>
       <c r="AC53" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD53" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AE53" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF53" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AG53" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AI53" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AJ53" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cj0AkSKh</t>
+          <t>tQdx9r5M</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6944,65 +6914,65 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H54" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="I54" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J54" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K54" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L54" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="M54" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N54" t="n">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="O54" t="n">
-        <v>2.7</v>
+        <v>1.98</v>
       </c>
       <c r="P54" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q54" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S54" t="n">
         <v>1.67</v>
       </c>
-      <c r="S54" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T54" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="U54" t="n">
         <v>41</v>
@@ -7014,49 +6984,49 @@
         <v>81</v>
       </c>
       <c r="X54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z54" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AA54" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AC54" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AD54" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF54" t="n">
         <v>8.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH54" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI54" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ54" t="n">
-        <v>151</v>
+        <v>900</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>dlymbWUi</t>
+          <t>Sbd0HNe4</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7066,115 +7036,119 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>AFS</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Obolon</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>2.7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K55" t="n">
+        <v>8</v>
+      </c>
       <c r="L55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M55" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N55" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P55" t="n">
         <v>1.5</v>
       </c>
-      <c r="P55" t="n">
-        <v>1.52</v>
-      </c>
       <c r="Q55" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="R55" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S55" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="T55" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="U55" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="V55" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="W55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X55" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y55" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Z55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA55" t="n">
         <v>6</v>
       </c>
       <c r="AB55" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC55" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF55" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AG55" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI55" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AJ55" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>hUHVyC76</t>
+          <t>6VUx4D9C</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7184,226 +7158,1930 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Universidad Central</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="H56" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>7</v>
+      </c>
       <c r="L56" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M56" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="N56" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P56" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R56" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="S56" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="T56" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="U56" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="V56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>17</v>
+      </c>
+      <c r="X56" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="n">
         <v>9</v>
       </c>
-      <c r="W56" t="n">
-        <v>25</v>
-      </c>
-      <c r="X56" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AE56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF56" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AG56" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AH56" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AI56" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AJ56" t="n">
-        <v>700</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>GQXBkEfJ</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ROMANIA - SUPERLIGA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Petrolul</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sepsi Sf. Gheorghe</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>7</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U57" t="n">
+        <v>11</v>
+      </c>
+      <c r="V57" t="n">
+        <v>10</v>
+      </c>
+      <c r="W57" t="n">
+        <v>23</v>
+      </c>
+      <c r="X57" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>YqoXEYBG</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Al Kholood</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="n">
+        <v>9</v>
+      </c>
+      <c r="U58" t="n">
+        <v>12</v>
+      </c>
+      <c r="V58" t="n">
+        <v>10</v>
+      </c>
+      <c r="W58" t="n">
+        <v>23</v>
+      </c>
+      <c r="X58" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>xfw0GQVN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Al Okhdood</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T59" t="n">
+        <v>9</v>
+      </c>
+      <c r="U59" t="n">
+        <v>13</v>
+      </c>
+      <c r="V59" t="n">
+        <v>11</v>
+      </c>
+      <c r="W59" t="n">
+        <v>26</v>
+      </c>
+      <c r="X59" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>8xUVA4go</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>23</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M60" t="n">
+        <v>6</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T60" t="n">
+        <v>13</v>
+      </c>
+      <c r="U60" t="n">
+        <v>13</v>
+      </c>
+      <c r="V60" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W60" t="n">
+        <v>19</v>
+      </c>
+      <c r="X60" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>l6GYhrXq</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K61" t="n">
+        <v>13</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U61" t="n">
+        <v>10</v>
+      </c>
+      <c r="V61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W61" t="n">
+        <v>17</v>
+      </c>
+      <c r="X61" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>AFD6igPr</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SPAIN - PRIMERA RFEF</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Celta Vigo B</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Barcelona B</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K62" t="n">
+        <v>9</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="n">
+        <v>8</v>
+      </c>
+      <c r="U62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W62" t="n">
+        <v>13</v>
+      </c>
+      <c r="X62" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ddFiqFy8</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SPAIN - PRIMERA RFEF</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>9</v>
+      </c>
+      <c r="W63" t="n">
+        <v>13</v>
+      </c>
+      <c r="X63" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SbrhrHs0</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K64" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T64" t="n">
+        <v>10</v>
+      </c>
+      <c r="U64" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W64" t="n">
+        <v>35</v>
+      </c>
+      <c r="X64" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0pSB2oTE</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K65" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U65" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V65" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W65" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X65" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>OQy1teCC</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Schaffhausen</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K66" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T66" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U66" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W66" t="n">
+        <v>8</v>
+      </c>
+      <c r="X66" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>jLcGOmDt</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Chiangrai Utd</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Nong Bua Pitchaya</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K67" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T67" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U67" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V67" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W67" t="n">
+        <v>21</v>
+      </c>
+      <c r="X67" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Cj0AkSKh</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K68" t="n">
+        <v>19</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M68" t="n">
+        <v>6</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T68" t="n">
+        <v>26</v>
+      </c>
+      <c r="U68" t="n">
+        <v>41</v>
+      </c>
+      <c r="V68" t="n">
+        <v>21</v>
+      </c>
+      <c r="W68" t="n">
+        <v>81</v>
+      </c>
+      <c r="X68" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>dlymbWUi</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Obolon</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T69" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U69" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V69" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>29</v>
+      </c>
+      <c r="X69" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>hUHVyC76</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Universidad Central</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T70" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U70" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V70" t="n">
+        <v>9</v>
+      </c>
+      <c r="W70" t="n">
+        <v>24</v>
+      </c>
+      <c r="X70" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>j5LEuf8s</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Anzoategui FC</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>Yaracuyanos</t>
         </is>
       </c>
-      <c r="G57" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="N57" t="n">
+      <c r="G71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R71" t="n">
         <v>2.02</v>
       </c>
-      <c r="O57" t="n">
+      <c r="S71" t="n">
         <v>1.62</v>
       </c>
-      <c r="P57" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T57" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="U57" t="n">
-        <v>7</v>
-      </c>
-      <c r="V57" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W57" t="n">
+      <c r="T71" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U71" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="V71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W71" t="n">
         <v>12.5</v>
       </c>
-      <c r="X57" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC57" t="n">
+      <c r="X71" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG71" t="n">
         <v>100</v>
       </c>
-      <c r="AD57" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>100</v>
-      </c>
-      <c r="AH57" t="n">
+      <c r="AH71" t="n">
         <v>60</v>
       </c>
-      <c r="AI57" t="n">
+      <c r="AI71" t="n">
         <v>65</v>
       </c>
-      <c r="AJ57" t="n">
+      <c r="AJ71" t="n">
         <v>101</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -811,7 +811,7 @@
         <v>6.5</v>
       </c>
       <c r="U3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>6.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -933,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V4" t="n">
         <v>9</v>
@@ -954,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>81</v>
@@ -963,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AH4" t="n">
         <v>51</v>
@@ -1022,10 +1022,10 @@
         <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>1.33</v>
@@ -1100,7 +1100,7 @@
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1302,7 +1302,7 @@
         <v>9.5</v>
       </c>
       <c r="V7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W7" t="n">
         <v>17</v>
@@ -1317,19 +1317,19 @@
         <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>41</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>13</v>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>1.29</v>
@@ -1457,7 +1457,7 @@
         <v>9.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>19</v>
@@ -1677,19 +1677,19 @@
         <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD10" t="n">
         <v>9.5</v>
@@ -1754,10 +1754,10 @@
         <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.36</v>
@@ -1790,7 +1790,7 @@
         <v>7</v>
       </c>
       <c r="V11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
@@ -1802,7 +1802,7 @@
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA11" t="n">
         <v>7.5</v>
@@ -1882,10 +1882,10 @@
         <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
         <v>2.25</v>
@@ -1900,10 +1900,10 @@
         <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T12" t="n">
         <v>6</v>
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X12" t="n">
         <v>17</v>
@@ -2010,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
         <v>1.44</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.08</v>
@@ -2132,10 +2132,10 @@
         <v>2.75</v>
       </c>
       <c r="N14" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P14" t="n">
         <v>1.5</v>
@@ -2144,10 +2144,10 @@
         <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T14" t="n">
         <v>5</v>
@@ -2156,7 +2156,7 @@
         <v>6</v>
       </c>
       <c r="V14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
         <v>10</v>
@@ -2168,25 +2168,25 @@
         <v>41</v>
       </c>
       <c r="Z14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA14" t="n">
         <v>7.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
         <v>101</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
         <v>81</v>
@@ -2233,19 +2233,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.5</v>
@@ -2266,22 +2266,22 @@
         <v>2.25</v>
       </c>
       <c r="R15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T15" t="n">
         <v>5</v>
       </c>
       <c r="U15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V15" t="n">
         <v>9.5</v>
       </c>
       <c r="W15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X15" t="n">
         <v>19</v>
@@ -2302,19 +2302,19 @@
         <v>81</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>51</v>
       </c>
       <c r="AH15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI15" t="n">
         <v>51</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
         <v>1.1</v>
@@ -2376,16 +2376,16 @@
         <v>2.63</v>
       </c>
       <c r="N16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R16" t="n">
         <v>2.1</v>
@@ -2496,10 +2496,10 @@
         <v>3.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P17" t="n">
         <v>1.36</v>
@@ -2514,7 +2514,7 @@
         <v>2.1</v>
       </c>
       <c r="T17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U17" t="n">
         <v>11</v>
@@ -2529,7 +2529,7 @@
         <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
@@ -2538,7 +2538,7 @@
         <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
         <v>41</v>
@@ -2556,10 +2556,10 @@
         <v>34</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
         <v>151</v>
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
@@ -2630,19 +2630,19 @@
         <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U18" t="n">
         <v>12</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W18" t="n">
         <v>23</v>
@@ -2666,7 +2666,7 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -2684,7 +2684,7 @@
         <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
@@ -2719,19 +2719,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
         <v>1.3</v>
@@ -2841,19 +2841,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -2862,10 +2862,10 @@
         <v>2.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P20" t="n">
         <v>1.57</v>
@@ -2874,16 +2874,16 @@
         <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
         <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V20" t="n">
         <v>10</v>
@@ -2916,16 +2916,16 @@
         <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
         <v>41</v>
       </c>
       <c r="AH20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ20" t="n">
         <v>101</v>
@@ -3207,19 +3207,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
         <v>1.22</v>
@@ -3234,10 +3234,10 @@
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R23" t="n">
         <v>1.91</v>
@@ -3267,10 +3267,10 @@
         <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
         <v>51</v>
@@ -3329,13 +3329,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H24" t="n">
         <v>4.75</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J24" t="n">
         <v>1.03</v>
@@ -3389,7 +3389,7 @@
         <v>15</v>
       </c>
       <c r="AA24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB24" t="n">
         <v>17</v>
@@ -3454,7 +3454,7 @@
         <v>2.15</v>
       </c>
       <c r="H25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>3.4</v>
@@ -3462,7 +3462,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
         <v>2.57</v>
@@ -3486,25 +3486,25 @@
         <v>1.75</v>
       </c>
       <c r="T25" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U25" t="n">
         <v>9.75</v>
       </c>
       <c r="V25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W25" t="n">
         <v>21</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y25" t="n">
         <v>32</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA25" t="n">
         <v>5.9</v>
@@ -3531,7 +3531,7 @@
         <v>35</v>
       </c>
       <c r="AI25" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ25" t="n">
         <v>800</v>
@@ -3691,13 +3691,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3726,13 +3726,13 @@
         <v>1.75</v>
       </c>
       <c r="T27" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U27" t="n">
         <v>13.5</v>
       </c>
       <c r="V27" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W27" t="n">
         <v>35</v>
@@ -3756,7 +3756,7 @@
         <v>90</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>11.5</v>
@@ -3809,13 +3809,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3844,16 +3844,16 @@
         <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U28" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X28" t="n">
         <v>16.5</v>
@@ -3874,16 +3874,16 @@
         <v>80</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AF28" t="n">
         <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="n">
         <v>35</v>
@@ -3927,10 +3927,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
         <v>5.2</v>
@@ -3953,7 +3953,7 @@
         <v>1.45</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
         <v>2.05</v>
@@ -3980,7 +3980,7 @@
         <v>35</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA29" t="n">
         <v>7.2</v>
@@ -3998,7 +3998,7 @@
         <v>28</v>
       </c>
       <c r="AF29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG29" t="n">
         <v>100</v>
@@ -4045,13 +4045,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="H30" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -4059,7 +4059,7 @@
         <v>1.4</v>
       </c>
       <c r="M30" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="N30" t="n">
         <v>2.15</v>
@@ -4074,61 +4074,61 @@
         <v>2.27</v>
       </c>
       <c r="R30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S30" t="n">
         <v>1.72</v>
       </c>
       <c r="T30" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="U30" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="V30" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="W30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y30" t="n">
         <v>45</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC30" t="n">
         <v>90</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF30" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF30" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AG30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH30" t="n">
         <v>21</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>20</v>
       </c>
       <c r="AI30" t="n">
         <v>37</v>
       </c>
       <c r="AJ30" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31">
@@ -4166,10 +4166,10 @@
         <v>2.07</v>
       </c>
       <c r="H31" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -4189,7 +4189,7 @@
         <v>1.52</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R31" t="n">
         <v>1.98</v>
@@ -4198,16 +4198,16 @@
         <v>1.65</v>
       </c>
       <c r="T31" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U31" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V31" t="n">
         <v>9</v>
       </c>
       <c r="W31" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X31" t="n">
         <v>19</v>
@@ -4216,22 +4216,22 @@
         <v>37</v>
       </c>
       <c r="Z31" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB31" t="n">
         <v>17.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD31" t="n">
         <v>8.25</v>
       </c>
       <c r="AE31" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF31" t="n">
         <v>13</v>
@@ -4316,10 +4316,10 @@
         <v>1.75</v>
       </c>
       <c r="T32" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="U32" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V32" t="n">
         <v>9.5</v>
@@ -4346,10 +4346,10 @@
         <v>80</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AE32" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
         <v>10.75</v>
@@ -4774,10 +4774,10 @@
         <v>3.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L36" t="n">
         <v>1.44</v>
@@ -4896,16 +4896,16 @@
         <v>2.25</v>
       </c>
       <c r="J37" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M37" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N37" t="n">
         <v>2.7</v>
@@ -4920,10 +4920,10 @@
         <v>2.2</v>
       </c>
       <c r="R37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S37" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T37" t="n">
         <v>7.5</v>
@@ -4938,7 +4938,7 @@
         <v>41</v>
       </c>
       <c r="X37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y37" t="n">
         <v>51</v>
@@ -5131,94 +5131,94 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J39" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N39" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="P39" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S39" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T39" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U39" t="n">
         <v>19</v>
       </c>
       <c r="V39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W39" t="n">
         <v>41</v>
       </c>
       <c r="X39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE39" t="n">
         <v>8.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG39" t="n">
         <v>17</v>
       </c>
       <c r="AH39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ39" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40">
@@ -5253,19 +5253,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
         <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="J40" t="n">
         <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="L40" t="n">
         <v>1.4</v>
@@ -5274,7 +5274,7 @@
         <v>2.75</v>
       </c>
       <c r="N40" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O40" t="n">
         <v>1.62</v>
@@ -5286,31 +5286,31 @@
         <v>2.42</v>
       </c>
       <c r="R40" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S40" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T40" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U40" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V40" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W40" t="n">
         <v>40</v>
       </c>
       <c r="X40" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y40" t="n">
         <v>45</v>
       </c>
       <c r="Z40" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA40" t="n">
         <v>6.4</v>
@@ -5319,22 +5319,22 @@
         <v>17</v>
       </c>
       <c r="AC40" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE40" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF40" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG40" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH40" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
         <v>35</v>
@@ -5375,25 +5375,25 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I41" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J41" t="n">
         <v>1.08</v>
       </c>
       <c r="K41" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L41" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M41" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="N41" t="n">
         <v>2.05</v>
@@ -5414,28 +5414,28 @@
         <v>1.72</v>
       </c>
       <c r="T41" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="U41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V41" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W41" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="X41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y41" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z41" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB41" t="n">
         <v>18</v>
@@ -5447,22 +5447,22 @@
         <v>6</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AF41" t="n">
         <v>8.25</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI41" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42">
@@ -5497,13 +5497,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="H42" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -5518,49 +5518,49 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="S42" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="T42" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="U42" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="V42" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="W42" t="n">
         <v>500</v>
       </c>
       <c r="X42" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Y42" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Z42" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA42" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC42" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD42" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE42" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AF42" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG42" t="n">
         <v>5.5</v>
@@ -5569,7 +5569,7 @@
         <v>9</v>
       </c>
       <c r="AI42" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ42" t="n">
         <v>101</v>
@@ -5607,86 +5607,86 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
         <v>3.65</v>
       </c>
       <c r="I43" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M43" t="n">
         <v>3.6</v>
       </c>
       <c r="N43" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T43" t="n">
         <v>11.25</v>
       </c>
       <c r="U43" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V43" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W43" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AA43" t="n">
         <v>6.3</v>
       </c>
       <c r="AB43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC43" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD43" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AE43" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AF43" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AG43" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AH43" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ43" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44">
@@ -5721,10 +5721,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
         <v>2.05</v>
@@ -5781,13 +5781,13 @@
         <v>11</v>
       </c>
       <c r="AA44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD44" t="n">
         <v>8</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5860,51 +5860,51 @@
         <v>4.9</v>
       </c>
       <c r="N45" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O45" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S45" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="T45" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V45" t="n">
         <v>9.75</v>
       </c>
       <c r="W45" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X45" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y45" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB45" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC45" t="n">
         <v>32</v>
       </c>
       <c r="AD45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE45" t="n">
         <v>16</v>
@@ -5913,16 +5913,16 @@
         <v>9.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH45" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI45" t="n">
         <v>20</v>
       </c>
       <c r="AJ45" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46">
@@ -5957,19 +5957,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J46" t="n">
         <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.36</v>
@@ -5978,10 +5978,10 @@
         <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O46" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -5990,22 +5990,22 @@
         <v>2.5</v>
       </c>
       <c r="R46" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S46" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U46" t="n">
         <v>11</v>
       </c>
       <c r="V46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X46" t="n">
         <v>21</v>
@@ -6014,34 +6014,34 @@
         <v>34</v>
       </c>
       <c r="Z46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA46" t="n">
         <v>6</v>
       </c>
       <c r="AB46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC46" t="n">
         <v>51</v>
       </c>
       <c r="AD46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH46" t="n">
         <v>26</v>
       </c>
       <c r="AI46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ46" t="n">
         <v>351</v>
@@ -6201,31 +6201,31 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H48" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J48" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L48" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N48" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O48" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P48" t="n">
         <v>1.33</v>
@@ -6234,34 +6234,34 @@
         <v>3.25</v>
       </c>
       <c r="R48" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V48" t="n">
         <v>8.5</v>
       </c>
       <c r="W48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X48" t="n">
         <v>13</v>
       </c>
       <c r="Y48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB48" t="n">
         <v>15</v>
@@ -6270,16 +6270,16 @@
         <v>41</v>
       </c>
       <c r="AD48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="n">
         <v>34</v>
@@ -6288,7 +6288,7 @@
         <v>34</v>
       </c>
       <c r="AJ48" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49">
@@ -6332,10 +6332,10 @@
         <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L49" t="n">
         <v>1.29</v>
@@ -6454,10 +6454,10 @@
         <v>2.7</v>
       </c>
       <c r="J50" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K50" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L50" t="n">
         <v>1.25</v>
@@ -6466,10 +6466,10 @@
         <v>3.75</v>
       </c>
       <c r="N50" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P50" t="n">
         <v>1.4</v>
@@ -6567,52 +6567,52 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
         <v>3.1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K51" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L51" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N51" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P51" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q51" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S51" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U51" t="n">
         <v>12</v>
       </c>
       <c r="V51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W51" t="n">
         <v>21</v>
@@ -6624,7 +6624,7 @@
         <v>23</v>
       </c>
       <c r="Z51" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA51" t="n">
         <v>6.5</v>
@@ -6636,13 +6636,13 @@
         <v>41</v>
       </c>
       <c r="AD51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE51" t="n">
         <v>17</v>
       </c>
       <c r="AF51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG51" t="n">
         <v>34</v>
@@ -6654,7 +6654,7 @@
         <v>29</v>
       </c>
       <c r="AJ51" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52">
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H54" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J54" t="n">
         <v>1.05</v>
@@ -6966,16 +6966,16 @@
         <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S54" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T54" t="n">
         <v>17</v>
       </c>
       <c r="U54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V54" t="n">
         <v>21</v>
@@ -7008,10 +7008,10 @@
         <v>6.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG54" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH54" t="n">
         <v>13</v>
@@ -7177,13 +7177,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J56" t="n">
         <v>1.1</v>
@@ -7192,34 +7192,34 @@
         <v>7</v>
       </c>
       <c r="L56" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M56" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N56" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O56" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P56" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R56" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S56" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T56" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V56" t="n">
         <v>9.5</v>
@@ -7228,22 +7228,22 @@
         <v>17</v>
       </c>
       <c r="X56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y56" t="n">
         <v>41</v>
       </c>
       <c r="Z56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA56" t="n">
         <v>6.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD56" t="n">
         <v>9</v>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H57" t="n">
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J57" t="n">
         <v>1.1</v>
@@ -7332,22 +7332,22 @@
         <v>2.38</v>
       </c>
       <c r="R57" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U57" t="n">
         <v>11</v>
       </c>
       <c r="V57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X57" t="n">
         <v>23</v>
@@ -7368,19 +7368,19 @@
         <v>67</v>
       </c>
       <c r="AD57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG57" t="n">
         <v>29</v>
       </c>
       <c r="AH57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI57" t="n">
         <v>41</v>
@@ -7430,10 +7430,10 @@
         <v>2.75</v>
       </c>
       <c r="J58" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L58" t="n">
         <v>1.25</v>
@@ -7442,10 +7442,10 @@
         <v>3.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O58" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
         <v>1.4</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H59" t="n">
         <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J59" t="n">
         <v>1.05</v>
@@ -7615,7 +7615,7 @@
         <v>8.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF59" t="n">
         <v>10</v>
@@ -7674,22 +7674,22 @@
         <v>3.2</v>
       </c>
       <c r="J60" t="n">
-        <v>23</v>
+        <v>1.02</v>
       </c>
       <c r="K60" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="L60" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M60" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P60" t="n">
         <v>1.22</v>
@@ -7787,13 +7787,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I61" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J61" t="n">
         <v>1.04</v>
@@ -7814,13 +7814,13 @@
         <v>2.08</v>
       </c>
       <c r="P61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q61" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R61" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S61" t="n">
         <v>2.1</v>
@@ -7829,22 +7829,22 @@
         <v>8.5</v>
       </c>
       <c r="U61" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V61" t="n">
         <v>8.5</v>
       </c>
       <c r="W61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y61" t="n">
         <v>23</v>
       </c>
       <c r="Z61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA61" t="n">
         <v>7</v>
@@ -7930,10 +7930,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O62" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P62" t="n">
         <v>1.33</v>
@@ -7942,7 +7942,7 @@
         <v>3.25</v>
       </c>
       <c r="R62" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S62" t="n">
         <v>2</v>
@@ -8519,19 +8519,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="H67" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
         <v>1.07</v>
       </c>
       <c r="K67" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="L67" t="n">
         <v>1.3</v>
@@ -8546,10 +8546,10 @@
         <v>1.8</v>
       </c>
       <c r="P67" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R67" t="n">
         <v>1.65</v>
@@ -8558,31 +8558,31 @@
         <v>2.1</v>
       </c>
       <c r="T67" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U67" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="V67" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W67" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X67" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z67" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA67" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB67" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC67" t="n">
         <v>50</v>
@@ -8594,19 +8594,19 @@
         <v>23</v>
       </c>
       <c r="AF67" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG67" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AH67" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI67" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ67" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68">
@@ -8641,13 +8641,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H68" t="n">
         <v>4.75</v>
       </c>
       <c r="I68" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J68" t="n">
         <v>1.02</v>
@@ -8674,13 +8674,13 @@
         <v>3.75</v>
       </c>
       <c r="R68" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S68" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U68" t="n">
         <v>41</v>
@@ -8716,7 +8716,7 @@
         <v>8.5</v>
       </c>
       <c r="AF68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG68" t="n">
         <v>10</v>
@@ -8763,33 +8763,33 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.65</v>
+        <v>3.9</v>
       </c>
       <c r="H69" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I69" t="n">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M69" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="N69" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="O69" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P69" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R69" t="n">
         <v>1.98</v>
@@ -8798,52 +8798,52 @@
         <v>1.65</v>
       </c>
       <c r="T69" t="n">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="U69" t="n">
-        <v>11.75</v>
+        <v>19.5</v>
       </c>
       <c r="V69" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="W69" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="X69" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="Y69" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Z69" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AA69" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC69" t="n">
         <v>110</v>
       </c>
       <c r="AD69" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE69" t="n">
-        <v>11.5</v>
+        <v>7.9</v>
       </c>
       <c r="AF69" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG69" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AI69" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AJ69" t="n">
         <v>101</v>
@@ -8881,13 +8881,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I70" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -8916,52 +8916,52 @@
         <v>1.78</v>
       </c>
       <c r="T70" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U70" t="n">
         <v>10.25</v>
       </c>
       <c r="V70" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W70" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X70" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y70" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z70" t="n">
         <v>6.6</v>
       </c>
       <c r="AA70" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB70" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD70" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE70" t="n">
         <v>19.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG70" t="n">
         <v>60</v>
       </c>
       <c r="AH70" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI70" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ70" t="n">
         <v>700</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -686,16 +686,16 @@
         <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V2" t="n">
         <v>8.5</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -734,7 +734,7 @@
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
@@ -778,16 +778,16 @@
         <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N3" t="n">
         <v>2.63</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -906,16 +906,16 @@
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
         <v>1.53</v>
@@ -924,13 +924,13 @@
         <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U4" t="n">
         <v>7</v>
@@ -972,7 +972,7 @@
         <v>51</v>
       </c>
       <c r="AH4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>51</v>
@@ -1016,28 +1016,28 @@
         <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
         <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1046,16 +1046,16 @@
         <v>2.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V5" t="n">
         <v>8.5</v>
@@ -1079,7 +1079,7 @@
         <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
@@ -1100,7 +1100,7 @@
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6">
@@ -1144,10 +1144,10 @@
         <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K6" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.73</v>
@@ -1156,16 +1156,16 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
         <v>2.5</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
         <v>1.06</v>
@@ -1457,7 +1457,7 @@
         <v>9.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>19</v>
@@ -1644,10 +1644,10 @@
         <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1879,7 +1879,7 @@
         <v>1.08</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -1900,10 +1900,10 @@
         <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T12" t="n">
         <v>6</v>
@@ -1930,7 +1930,7 @@
         <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
         <v>67</v>
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.4</v>
@@ -2144,10 +2144,10 @@
         <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
         <v>5</v>
@@ -2180,7 +2180,7 @@
         <v>101</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
         <v>34</v>
@@ -2242,10 +2242,10 @@
         <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
         <v>1.5</v>
@@ -2355,37 +2355,37 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N16" t="n">
         <v>2.25</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.25</v>
       </c>
       <c r="R16" t="n">
         <v>2.1</v>
@@ -2397,25 +2397,25 @@
         <v>6</v>
       </c>
       <c r="U16" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="V16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB16" t="n">
         <v>19</v>
@@ -2424,24 +2424,26 @@
         <v>67</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
         <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>13</v>
       </c>
       <c r="AG16" t="n">
         <v>41</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
         <v>41</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="AJ16" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2597,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
@@ -2630,19 +2632,19 @@
         <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U18" t="n">
         <v>12</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W18" t="n">
         <v>23</v>
@@ -2666,7 +2668,7 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -2684,7 +2686,7 @@
         <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19">
@@ -2847,7 +2849,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>1.11</v>
@@ -2865,7 +2867,7 @@
         <v>2.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
         <v>1.57</v>
@@ -2880,13 +2882,13 @@
         <v>1.62</v>
       </c>
       <c r="T20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U20" t="n">
         <v>8.5</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W20" t="n">
         <v>19</v>
@@ -2910,10 +2912,10 @@
         <v>67</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>15</v>
@@ -2987,7 +2989,7 @@
         <v>2.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
         <v>1.57</v>
@@ -3085,19 +3087,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -3109,7 +3111,7 @@
         <v>2.15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P22" t="n">
         <v>1.44</v>
@@ -3127,7 +3129,7 @@
         <v>7</v>
       </c>
       <c r="U22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V22" t="n">
         <v>9.5</v>
@@ -3157,7 +3159,7 @@
         <v>10</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>13</v>
@@ -3166,7 +3168,7 @@
         <v>41</v>
       </c>
       <c r="AH22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -3207,7 +3209,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H23" t="n">
         <v>4.1</v>
@@ -3228,10 +3230,10 @@
         <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P23" t="n">
         <v>1.33</v>
@@ -3338,13 +3340,13 @@
         <v>6.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
         <v>17</v>
       </c>
       <c r="L24" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
@@ -3457,7 +3459,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3486,7 +3488,7 @@
         <v>1.75</v>
       </c>
       <c r="T25" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U25" t="n">
         <v>9.75</v>
@@ -3498,7 +3500,7 @@
         <v>21</v>
       </c>
       <c r="X25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
         <v>32</v>
@@ -3513,13 +3515,13 @@
         <v>15.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="n">
         <v>8.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
@@ -3531,7 +3533,7 @@
         <v>35</v>
       </c>
       <c r="AI25" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ25" t="n">
         <v>800</v>
@@ -3694,10 +3696,10 @@
         <v>2.82</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I27" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3726,49 +3728,49 @@
         <v>1.75</v>
       </c>
       <c r="T27" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U27" t="n">
         <v>13.5</v>
       </c>
       <c r="V27" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W27" t="n">
         <v>35</v>
       </c>
       <c r="X27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y27" t="n">
         <v>40</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="n">
         <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF27" t="n">
         <v>9.75</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>37</v>
@@ -3809,13 +3811,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3844,19 +3846,19 @@
         <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U28" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
         <v>30</v>
@@ -3865,34 +3867,34 @@
         <v>8.75</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE28" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AF28" t="n">
         <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="n">
         <v>35</v>
       </c>
       <c r="AI28" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ28" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -4080,19 +4082,19 @@
         <v>1.72</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U30" t="n">
         <v>14.5</v>
       </c>
       <c r="V30" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W30" t="n">
         <v>40</v>
       </c>
       <c r="X30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y30" t="n">
         <v>45</v>
@@ -4110,22 +4112,22 @@
         <v>90</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG30" t="n">
         <v>22</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ30" t="n">
         <v>900</v>
@@ -4284,7 +4286,7 @@
         <v>2.45</v>
       </c>
       <c r="H32" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -4310,16 +4312,16 @@
         <v>2.22</v>
       </c>
       <c r="R32" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T32" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="U32" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="V32" t="n">
         <v>9.5</v>
@@ -4331,13 +4333,13 @@
         <v>23</v>
       </c>
       <c r="Y32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z32" t="n">
         <v>7.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
@@ -4346,19 +4348,19 @@
         <v>80</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG32" t="n">
         <v>40</v>
       </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI32" t="n">
         <v>40</v>
@@ -4420,7 +4422,7 @@
         <v>5.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O33" t="n">
         <v>2.5</v>
@@ -4521,31 +4523,31 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I34" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K34" t="n">
         <v>13</v>
       </c>
       <c r="L34" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="M34" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P34" t="n">
         <v>1.36</v>
@@ -4554,52 +4556,52 @@
         <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T34" t="n">
+        <v>7</v>
+      </c>
+      <c r="U34" t="n">
         <v>7.5</v>
-      </c>
-      <c r="U34" t="n">
-        <v>8</v>
       </c>
       <c r="V34" t="n">
         <v>8.5</v>
       </c>
       <c r="W34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
         <v>26</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF34" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
@@ -4643,55 +4645,55 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H35" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K35" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N35" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O35" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R35" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S35" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T35" t="n">
         <v>6</v>
       </c>
       <c r="U35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
@@ -4700,25 +4702,25 @@
         <v>34</v>
       </c>
       <c r="Z35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB35" t="n">
         <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG35" t="n">
         <v>81</v>
@@ -4727,7 +4729,7 @@
         <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="n">
         <v>501</v>
@@ -4765,31 +4767,31 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K36" t="n">
         <v>7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M36" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N36" t="n">
         <v>2.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P36" t="n">
         <v>1.57</v>
@@ -4798,22 +4800,22 @@
         <v>2.25</v>
       </c>
       <c r="R36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S36" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V36" t="n">
         <v>9.5</v>
       </c>
-      <c r="V36" t="n">
-        <v>10</v>
-      </c>
       <c r="W36" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
@@ -4822,34 +4824,34 @@
         <v>41</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA36" t="n">
         <v>6</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="n">
         <v>67</v>
       </c>
       <c r="AD36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF36" t="n">
         <v>15</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>13</v>
       </c>
       <c r="AG36" t="n">
         <v>41</v>
       </c>
       <c r="AH36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ36" t="n">
         <v>501</v>
@@ -4896,22 +4898,22 @@
         <v>2.25</v>
       </c>
       <c r="J37" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K37" t="n">
         <v>6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="M37" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="N37" t="n">
         <v>2.7</v>
       </c>
       <c r="O37" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P37" t="n">
         <v>1.62</v>
@@ -4920,10 +4922,10 @@
         <v>2.2</v>
       </c>
       <c r="R37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T37" t="n">
         <v>7.5</v>
@@ -4938,7 +4940,7 @@
         <v>41</v>
       </c>
       <c r="X37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y37" t="n">
         <v>51</v>
@@ -4959,7 +4961,7 @@
         <v>5.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF37" t="n">
         <v>10</v>
@@ -5009,37 +5011,37 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H38" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
         <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="M38" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N38" t="n">
         <v>2.35</v>
       </c>
       <c r="O38" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R38" t="n">
         <v>2.1</v>
@@ -5066,7 +5068,7 @@
         <v>34</v>
       </c>
       <c r="Z38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA38" t="n">
         <v>6.5</v>
@@ -5078,7 +5080,7 @@
         <v>67</v>
       </c>
       <c r="AD38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE38" t="n">
         <v>21</v>
@@ -5134,16 +5136,16 @@
         <v>3.9</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I39" t="n">
         <v>2.05</v>
       </c>
       <c r="J39" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
         <v>1.44</v>
@@ -5152,16 +5154,16 @@
         <v>2.63</v>
       </c>
       <c r="N39" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="O39" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R39" t="n">
         <v>2.1</v>
@@ -5185,7 +5187,7 @@
         <v>41</v>
       </c>
       <c r="Y39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="n">
         <v>7</v>
@@ -5200,7 +5202,7 @@
         <v>67</v>
       </c>
       <c r="AD39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE39" t="n">
         <v>8.5</v>
@@ -5212,10 +5214,10 @@
         <v>17</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
         <v>501</v>
@@ -5253,13 +5255,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H40" t="n">
         <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="J40" t="n">
         <v>1.08</v>
@@ -5286,25 +5288,25 @@
         <v>2.42</v>
       </c>
       <c r="R40" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S40" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T40" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U40" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V40" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="W40" t="n">
         <v>40</v>
       </c>
       <c r="X40" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y40" t="n">
         <v>45</v>
@@ -5313,28 +5315,28 @@
         <v>6.4</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB40" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF40" t="n">
         <v>9.25</v>
       </c>
-      <c r="AF40" t="n">
-        <v>9</v>
-      </c>
       <c r="AG40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH40" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI40" t="n">
         <v>35</v>
@@ -5375,7 +5377,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H41" t="n">
         <v>3.45</v>
@@ -5384,7 +5386,7 @@
         <v>1.65</v>
       </c>
       <c r="J41" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="n">
         <v>6.7</v>
@@ -5393,10 +5395,10 @@
         <v>1.35</v>
       </c>
       <c r="M41" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="N41" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O41" t="n">
         <v>1.7</v>
@@ -5405,7 +5407,7 @@
         <v>1.47</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R41" t="n">
         <v>2</v>
@@ -5417,16 +5419,16 @@
         <v>11.75</v>
       </c>
       <c r="U41" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V41" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="W41" t="n">
         <v>100</v>
       </c>
       <c r="X41" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y41" t="n">
         <v>65</v>
@@ -5435,7 +5437,7 @@
         <v>6.7</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB41" t="n">
         <v>18</v>
@@ -5444,22 +5446,22 @@
         <v>100</v>
       </c>
       <c r="AD41" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF41" t="n">
         <v>8.25</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH41" t="n">
         <v>14</v>
       </c>
       <c r="AI41" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ41" t="n">
         <v>900</v>
@@ -5510,18 +5512,18 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="O42" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="S42" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="T42" t="n">
         <v>50</v>
@@ -5607,10 +5609,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H43" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
         <v>1.57</v>
@@ -5621,10 +5623,10 @@
         <v>1.25</v>
       </c>
       <c r="M43" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="N43" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O43" t="n">
         <v>1.8</v>
@@ -5632,28 +5634,28 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S43" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T43" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="U43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V43" t="n">
         <v>13.5</v>
       </c>
       <c r="W43" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="X43" t="n">
         <v>40</v>
       </c>
       <c r="Y43" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="n">
         <v>10</v>
@@ -5668,19 +5670,19 @@
         <v>60</v>
       </c>
       <c r="AD43" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE43" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF43" t="n">
         <v>6.9</v>
       </c>
       <c r="AG43" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI43" t="n">
         <v>21</v>
@@ -5721,13 +5723,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="J44" t="n">
         <v>1.05</v>
@@ -5736,16 +5738,16 @@
         <v>11</v>
       </c>
       <c r="L44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N44" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O44" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -5754,61 +5756,61 @@
         <v>2.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U44" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W44" t="n">
         <v>41</v>
       </c>
       <c r="X44" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Y44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="n">
         <v>11</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI44" t="n">
         <v>26</v>
       </c>
       <c r="AJ44" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
@@ -5843,13 +5845,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="H45" t="n">
         <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5874,22 +5876,22 @@
         <v>2.5</v>
       </c>
       <c r="T45" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="U45" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="V45" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W45" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X45" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="n">
         <v>15.5</v>
@@ -5904,22 +5906,22 @@
         <v>32</v>
       </c>
       <c r="AD45" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG45" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH45" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ45" t="n">
         <v>150</v>
@@ -5981,7 +5983,7 @@
         <v>2.15</v>
       </c>
       <c r="O46" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -6201,13 +6203,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H48" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I48" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J48" t="n">
         <v>1.03</v>
@@ -6234,31 +6236,31 @@
         <v>3.25</v>
       </c>
       <c r="R48" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S48" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V48" t="n">
         <v>8.5</v>
       </c>
       <c r="W48" t="n">
+        <v>12</v>
+      </c>
+      <c r="X48" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z48" t="n">
         <v>13</v>
-      </c>
-      <c r="X48" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>15</v>
       </c>
       <c r="AA48" t="n">
         <v>8</v>
@@ -6267,28 +6269,28 @@
         <v>15</v>
       </c>
       <c r="AC48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD48" t="n">
         <v>15</v>
       </c>
       <c r="AE48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG48" t="n">
         <v>51</v>
       </c>
       <c r="AH48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ48" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49">
@@ -6332,22 +6334,22 @@
         <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L49" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M49" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N49" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O49" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="P49" t="n">
         <v>1.4</v>
@@ -6454,10 +6456,10 @@
         <v>2.7</v>
       </c>
       <c r="J50" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K50" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L50" t="n">
         <v>1.25</v>
@@ -6466,10 +6468,10 @@
         <v>3.75</v>
       </c>
       <c r="N50" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O50" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P50" t="n">
         <v>1.4</v>
@@ -6567,13 +6569,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
         <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J51" t="n">
         <v>1.05</v>
@@ -6582,10 +6584,10 @@
         <v>11</v>
       </c>
       <c r="L51" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M51" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N51" t="n">
         <v>1.83</v>
@@ -6600,7 +6602,7 @@
         <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S51" t="n">
         <v>2.2</v>
@@ -6609,10 +6611,10 @@
         <v>9</v>
       </c>
       <c r="U51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V51" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W51" t="n">
         <v>21</v>
@@ -6636,19 +6638,19 @@
         <v>41</v>
       </c>
       <c r="AD51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE51" t="n">
         <v>17</v>
       </c>
       <c r="AF51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG51" t="n">
         <v>34</v>
       </c>
       <c r="AH51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI51" t="n">
         <v>29</v>
@@ -6689,13 +6691,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J52" t="n">
         <v>1.09</v>
@@ -6710,10 +6712,10 @@
         <v>2.77</v>
       </c>
       <c r="N52" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O52" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P52" t="n">
         <v>1.52</v>
@@ -6737,7 +6739,7 @@
         <v>11</v>
       </c>
       <c r="W52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X52" t="n">
         <v>23</v>
@@ -6761,7 +6763,7 @@
         <v>8</v>
       </c>
       <c r="AE52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF52" t="n">
         <v>11</v>
@@ -6844,10 +6846,10 @@
         <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S53" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T53" t="n">
         <v>7.5</v>
@@ -6933,13 +6935,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I54" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="J54" t="n">
         <v>1.05</v>
@@ -6966,19 +6968,19 @@
         <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S54" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="T54" t="n">
         <v>17</v>
       </c>
       <c r="U54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W54" t="n">
         <v>81</v>
@@ -7008,10 +7010,10 @@
         <v>6.5</v>
       </c>
       <c r="AF54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG54" t="n">
         <v>9</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>9.5</v>
       </c>
       <c r="AH54" t="n">
         <v>13</v>
@@ -7055,13 +7057,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="J55" t="n">
         <v>1.08</v>
@@ -7088,28 +7090,28 @@
         <v>2.5</v>
       </c>
       <c r="R55" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S55" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V55" t="n">
         <v>11</v>
       </c>
       <c r="W55" t="n">
+        <v>34</v>
+      </c>
+      <c r="X55" t="n">
         <v>26</v>
       </c>
-      <c r="X55" t="n">
-        <v>23</v>
-      </c>
       <c r="Y55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z55" t="n">
         <v>8</v>
@@ -7124,19 +7126,19 @@
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI55" t="n">
         <v>34</v>
@@ -7183,37 +7185,37 @@
         <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J56" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L56" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M56" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N56" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P56" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R56" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T56" t="n">
         <v>6</v>
@@ -7231,10 +7233,10 @@
         <v>19</v>
       </c>
       <c r="Y56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z56" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA56" t="n">
         <v>6.5</v>
@@ -7258,13 +7260,13 @@
         <v>41</v>
       </c>
       <c r="AH56" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI56" t="n">
         <v>41</v>
       </c>
-      <c r="AI56" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ56" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -7299,19 +7301,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I57" t="n">
         <v>2.7</v>
       </c>
       <c r="J57" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L57" t="n">
         <v>1.44</v>
@@ -7320,16 +7322,16 @@
         <v>2.63</v>
       </c>
       <c r="N57" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O57" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P57" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R57" t="n">
         <v>2</v>
@@ -7341,22 +7343,22 @@
         <v>7</v>
       </c>
       <c r="U57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V57" t="n">
         <v>11</v>
       </c>
       <c r="W57" t="n">
+        <v>29</v>
+      </c>
+      <c r="X57" t="n">
         <v>26</v>
-      </c>
-      <c r="X57" t="n">
-        <v>23</v>
       </c>
       <c r="Y57" t="n">
         <v>41</v>
       </c>
       <c r="Z57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA57" t="n">
         <v>6</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J59" t="n">
         <v>1.05</v>
@@ -7615,7 +7617,7 @@
         <v>8.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF59" t="n">
         <v>10</v>
@@ -7665,31 +7667,31 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H60" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.02</v>
+        <v>23</v>
       </c>
       <c r="K60" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="L60" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M60" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O60" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P60" t="n">
         <v>1.22</v>
@@ -7707,28 +7709,28 @@
         <v>13</v>
       </c>
       <c r="U60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V60" t="n">
         <v>9.5</v>
       </c>
       <c r="W60" t="n">
+        <v>21</v>
+      </c>
+      <c r="X60" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y60" t="n">
         <v>19</v>
-      </c>
-      <c r="X60" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>17</v>
       </c>
       <c r="Z60" t="n">
         <v>23</v>
       </c>
       <c r="AA60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC60" t="n">
         <v>29</v>
@@ -7749,7 +7751,7 @@
         <v>21</v>
       </c>
       <c r="AI60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ60" t="n">
         <v>81</v>
@@ -7787,31 +7789,31 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I61" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L61" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N61" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O61" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P61" t="n">
         <v>1.33</v>
@@ -7829,13 +7831,13 @@
         <v>8.5</v>
       </c>
       <c r="U61" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V61" t="n">
         <v>8.5</v>
       </c>
       <c r="W61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X61" t="n">
         <v>13</v>
@@ -7847,28 +7849,28 @@
         <v>13</v>
       </c>
       <c r="AA61" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC61" t="n">
         <v>41</v>
       </c>
       <c r="AD61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI61" t="n">
         <v>34</v>
@@ -7930,10 +7932,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O62" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P62" t="n">
         <v>1.33</v>
@@ -8400,7 +8402,7 @@
         <v>1.32</v>
       </c>
       <c r="H66" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I66" t="n">
         <v>8.5</v>
@@ -8415,13 +8417,13 @@
         <v>1.2</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="N66" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O66" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="P66" t="n">
         <v>1.32</v>
@@ -8430,28 +8432,28 @@
         <v>3.1</v>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S66" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T66" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U66" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="V66" t="n">
         <v>8.5</v>
       </c>
       <c r="W66" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X66" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y66" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z66" t="n">
         <v>8.75</v>
@@ -8460,10 +8462,10 @@
         <v>9.75</v>
       </c>
       <c r="AB66" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC66" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD66" t="n">
         <v>23</v>
@@ -8484,7 +8486,7 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="67">
@@ -8519,91 +8521,91 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="J67" t="n">
         <v>1.07</v>
       </c>
       <c r="K67" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="L67" t="n">
         <v>1.3</v>
       </c>
       <c r="M67" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N67" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O67" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P67" t="n">
         <v>1.45</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R67" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S67" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T67" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="U67" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="V67" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W67" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X67" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y67" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z67" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA67" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB67" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD67" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF67" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG67" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI67" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ67" t="n">
         <v>400</v>
@@ -8668,10 +8670,10 @@
         <v>2.7</v>
       </c>
       <c r="P68" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q68" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R68" t="n">
         <v>1.62</v>
@@ -8680,7 +8682,7 @@
         <v>2.2</v>
       </c>
       <c r="T68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U68" t="n">
         <v>41</v>
@@ -8716,19 +8718,19 @@
         <v>8.5</v>
       </c>
       <c r="AF68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH68" t="n">
         <v>11</v>
       </c>
       <c r="AI68" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ68" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69">
@@ -8763,13 +8765,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
         <v>3.3</v>
       </c>
       <c r="I69" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -8798,49 +8800,49 @@
         <v>1.65</v>
       </c>
       <c r="T69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U69" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="V69" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W69" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X69" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Y69" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z69" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB69" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC69" t="n">
         <v>110</v>
       </c>
       <c r="AD69" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AE69" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG69" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH69" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI69" t="n">
         <v>37</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
         <v>12</v>
@@ -772,10 +772,10 @@
         <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
         <v>1.13</v>
@@ -790,31 +790,31 @@
         <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V3" t="n">
         <v>11</v>
-      </c>
-      <c r="V3" t="n">
-        <v>10</v>
       </c>
       <c r="W3" t="n">
         <v>23</v>
@@ -826,13 +826,13 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA3" t="n">
         <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
@@ -844,13 +844,13 @@
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>34</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -924,22 +924,22 @@
         <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V4" t="n">
         <v>9</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
         <v>17</v>
@@ -954,25 +954,25 @@
         <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>81</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH4" t="n">
         <v>51</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>51</v>
@@ -1025,7 +1025,7 @@
         <v>1.07</v>
       </c>
       <c r="K5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1302,10 +1302,10 @@
         <v>9.5</v>
       </c>
       <c r="V7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X7" t="n">
         <v>15</v>
@@ -1326,10 +1326,10 @@
         <v>41</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>13</v>
@@ -1516,34 +1516,34 @@
         <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O9" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
@@ -1552,25 +1552,25 @@
         <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>29</v>
@@ -1585,10 +1585,10 @@
         <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -1644,10 +1644,10 @@
         <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
         <v>5.25</v>
@@ -1879,13 +1879,13 @@
         <v>1.08</v>
       </c>
       <c r="K12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N12" t="n">
         <v>2.25</v>
@@ -2010,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P13" t="n">
         <v>1.44</v>
@@ -2123,7 +2123,7 @@
         <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
         <v>1.4</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J15" t="n">
         <v>1.1</v>
@@ -2254,10 +2254,10 @@
         <v>2.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
         <v>1.57</v>
@@ -2266,25 +2266,25 @@
         <v>2.25</v>
       </c>
       <c r="R15" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="T15" t="n">
         <v>5</v>
       </c>
       <c r="U15" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="V15" t="n">
         <v>9.5</v>
       </c>
       <c r="W15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
         <v>41</v>
@@ -2293,31 +2293,31 @@
         <v>6.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF15" t="n">
         <v>21</v>
       </c>
-      <c r="AC15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>17</v>
-      </c>
       <c r="AG15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH15" t="n">
         <v>51</v>
       </c>
-      <c r="AH15" t="n">
-        <v>41</v>
-      </c>
       <c r="AI15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="n">
         <v>101</v>
@@ -2355,19 +2355,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L16" t="n">
         <v>1.4</v>
@@ -2406,13 +2406,13 @@
         <v>15</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
         <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
         <v>6.5</v>
@@ -2427,7 +2427,7 @@
         <v>9.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
         <v>15</v>
@@ -2492,16 +2492,16 @@
         <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O17" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="P17" t="n">
         <v>1.36</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
@@ -2632,19 +2632,19 @@
         <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U18" t="n">
         <v>12</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W18" t="n">
         <v>23</v>
@@ -2668,7 +2668,7 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -2686,7 +2686,7 @@
         <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
@@ -2864,10 +2864,10 @@
         <v>2.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
         <v>1.57</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J21" t="n">
         <v>1.1</v>
@@ -2989,7 +2989,7 @@
         <v>2.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
         <v>1.57</v>
@@ -3004,10 +3004,10 @@
         <v>1.67</v>
       </c>
       <c r="T21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V21" t="n">
         <v>13</v>
@@ -3043,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
@@ -3087,19 +3087,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -3108,16 +3108,16 @@
         <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R22" t="n">
         <v>1.83</v>
@@ -3135,19 +3135,19 @@
         <v>9.5</v>
       </c>
       <c r="W22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X22" t="n">
         <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="n">
         <v>8</v>
       </c>
       <c r="AA22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
@@ -3156,7 +3156,7 @@
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE22" t="n">
         <v>17</v>
@@ -3165,7 +3165,7 @@
         <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH22" t="n">
         <v>29</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H23" t="n">
         <v>4.1</v>
@@ -3224,16 +3224,16 @@
         <v>13</v>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N23" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P23" t="n">
         <v>1.33</v>
@@ -3340,13 +3340,13 @@
         <v>6.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K24" t="n">
         <v>17</v>
       </c>
       <c r="L24" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
@@ -3453,87 +3453,87 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="N25" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.57</v>
       </c>
       <c r="P25" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R25" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S25" t="n">
         <v>1.75</v>
       </c>
       <c r="T25" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="U25" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="V25" t="n">
         <v>8.75</v>
       </c>
       <c r="W25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y25" t="n">
         <v>32</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC25" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI25" t="n">
         <v>50</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>45</v>
       </c>
       <c r="AJ25" t="n">
         <v>800</v>
@@ -3574,10 +3574,10 @@
         <v>2.72</v>
       </c>
       <c r="H26" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J26" t="n">
         <v>1.11</v>
@@ -3601,7 +3601,7 @@
         <v>1.57</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
         <v>2.05</v>
@@ -3631,10 +3631,10 @@
         <v>6.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC26" t="n">
         <v>120</v>
@@ -3646,7 +3646,7 @@
         <v>11.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG26" t="n">
         <v>30</v>
@@ -3693,13 +3693,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I27" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3719,52 +3719,52 @@
         <v>1.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R27" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S27" t="n">
         <v>1.75</v>
       </c>
       <c r="T27" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="U27" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="V27" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
         <v>40</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC27" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE27" t="n">
         <v>11.75</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG27" t="n">
         <v>28</v>
@@ -3843,28 +3843,28 @@
         <v>1.8</v>
       </c>
       <c r="S28" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T28" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U28" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA28" t="n">
         <v>6.3</v>
@@ -3876,10 +3876,10 @@
         <v>75</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="n">
         <v>12.5</v>
@@ -3888,13 +3888,13 @@
         <v>55</v>
       </c>
       <c r="AH28" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI28" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ28" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29">
@@ -3929,10 +3929,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H29" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
         <v>5.2</v>
@@ -3940,13 +3940,13 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="N29" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O29" t="n">
         <v>1.62</v>
@@ -3961,7 +3961,7 @@
         <v>2.05</v>
       </c>
       <c r="S29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T29" t="n">
         <v>5.6</v>
@@ -4053,7 +4053,7 @@
         <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -4082,19 +4082,19 @@
         <v>1.72</v>
       </c>
       <c r="T30" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U30" t="n">
         <v>14.5</v>
       </c>
       <c r="V30" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W30" t="n">
         <v>40</v>
       </c>
       <c r="X30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y30" t="n">
         <v>45</v>
@@ -4103,7 +4103,7 @@
         <v>7.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB30" t="n">
         <v>16.5</v>
@@ -4112,22 +4112,22 @@
         <v>90</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ30" t="n">
         <v>900</v>
@@ -4168,7 +4168,7 @@
         <v>2.07</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I31" t="n">
         <v>3.55</v>
@@ -4176,10 +4176,10 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M31" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="N31" t="n">
         <v>2.25</v>
@@ -4209,7 +4209,7 @@
         <v>9</v>
       </c>
       <c r="W31" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X31" t="n">
         <v>19</v>
@@ -4218,7 +4218,7 @@
         <v>37</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA31" t="n">
         <v>6.1</v>
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="H32" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -4294,16 +4294,16 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M32" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N32" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P32" t="n">
         <v>1.52</v>
@@ -4312,25 +4312,25 @@
         <v>2.22</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S32" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="T32" t="n">
         <v>6.9</v>
       </c>
       <c r="U32" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V32" t="n">
         <v>9.5</v>
       </c>
       <c r="W32" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y32" t="n">
         <v>35</v>
@@ -4339,34 +4339,34 @@
         <v>7.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AE32" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG32" t="n">
         <v>40</v>
       </c>
       <c r="AH32" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI32" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ32" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
@@ -4422,7 +4422,7 @@
         <v>5.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O33" t="n">
         <v>2.5</v>
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H34" t="n">
         <v>4.1</v>
@@ -4532,22 +4532,22 @@
         <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L34" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="O34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
         <v>1.36</v>
@@ -4556,16 +4556,16 @@
         <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S34" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
       </c>
       <c r="U34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V34" t="n">
         <v>8.5</v>
@@ -4574,16 +4574,16 @@
         <v>11</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
         <v>26</v>
       </c>
       <c r="Z34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB34" t="n">
         <v>17</v>
@@ -4610,7 +4610,7 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35">
@@ -4645,22 +4645,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
         <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M35" t="n">
         <v>3.4</v>
@@ -4690,7 +4690,7 @@
         <v>6</v>
       </c>
       <c r="V35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W35" t="n">
         <v>9.5</v>
@@ -4723,7 +4723,7 @@
         <v>23</v>
       </c>
       <c r="AG35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH35" t="n">
         <v>51</v>
@@ -4776,22 +4776,22 @@
         <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K36" t="n">
         <v>7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N36" t="n">
         <v>2.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P36" t="n">
         <v>1.57</v>
@@ -4898,22 +4898,22 @@
         <v>2.25</v>
       </c>
       <c r="J37" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K37" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M37" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="N37" t="n">
         <v>2.7</v>
       </c>
       <c r="O37" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
         <v>1.62</v>
@@ -5020,13 +5020,13 @@
         <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="n">
         <v>2.75</v>
@@ -5035,7 +5035,7 @@
         <v>2.35</v>
       </c>
       <c r="O38" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P38" t="n">
         <v>1.5</v>
@@ -5142,10 +5142,10 @@
         <v>2.05</v>
       </c>
       <c r="J39" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
         <v>1.44</v>
@@ -5166,25 +5166,25 @@
         <v>2.38</v>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S39" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U39" t="n">
         <v>19</v>
       </c>
       <c r="V39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W39" t="n">
         <v>41</v>
       </c>
       <c r="X39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y39" t="n">
         <v>41</v>
@@ -5255,13 +5255,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="H40" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I40" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J40" t="n">
         <v>1.08</v>
@@ -5294,19 +5294,19 @@
         <v>1.78</v>
       </c>
       <c r="T40" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="U40" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V40" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W40" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X40" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y40" t="n">
         <v>45</v>
@@ -5315,7 +5315,7 @@
         <v>6.4</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB40" t="n">
         <v>16.5</v>
@@ -5324,25 +5324,25 @@
         <v>90</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE40" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF40" t="n">
         <v>9.25</v>
       </c>
       <c r="AG40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH40" t="n">
         <v>20</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>19.5</v>
       </c>
       <c r="AI40" t="n">
         <v>35</v>
       </c>
       <c r="AJ40" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="41">
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
         <v>3.45</v>
@@ -5395,7 +5395,7 @@
         <v>1.35</v>
       </c>
       <c r="M41" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="N41" t="n">
         <v>2.02</v>
@@ -5410,10 +5410,10 @@
         <v>2.52</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S41" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T41" t="n">
         <v>11.75</v>
@@ -5422,13 +5422,13 @@
         <v>28</v>
       </c>
       <c r="V41" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="W41" t="n">
         <v>100</v>
       </c>
       <c r="X41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y41" t="n">
         <v>65</v>
@@ -5446,25 +5446,25 @@
         <v>100</v>
       </c>
       <c r="AD41" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AF41" t="n">
         <v>8.25</v>
       </c>
       <c r="AG41" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH41" t="n">
         <v>14</v>
       </c>
       <c r="AI41" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ41" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -5499,40 +5499,40 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="H42" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="I42" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="O42" t="n">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>2.23</v>
+        <v>2.31</v>
       </c>
       <c r="S42" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="T42" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="U42" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="V42" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W42" t="n">
         <v>500</v>
@@ -5541,37 +5541,37 @@
         <v>250</v>
       </c>
       <c r="Y42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Z42" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA42" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AB42" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC42" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AD42" t="n">
-        <v>8.25</v>
+        <v>6.4</v>
       </c>
       <c r="AE42" t="n">
-        <v>5.7</v>
+        <v>4.85</v>
       </c>
       <c r="AF42" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG42" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AH42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AJ42" t="n">
         <v>101</v>
@@ -5609,50 +5609,54 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="H43" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I43" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M43" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="N43" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O43" t="n">
         <v>1.8</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="P43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.52</v>
+      </c>
       <c r="R43" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S43" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="T43" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="U43" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V43" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="W43" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="X43" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="n">
         <v>45</v>
@@ -5661,34 +5665,34 @@
         <v>10</v>
       </c>
       <c r="AA43" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AB43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AD43" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AF43" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AG43" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH43" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ43" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44">
@@ -5723,13 +5727,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J44" t="n">
         <v>1.05</v>
@@ -5750,10 +5754,10 @@
         <v>1.98</v>
       </c>
       <c r="P44" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
         <v>1.8</v>
@@ -5762,13 +5766,13 @@
         <v>1.95</v>
       </c>
       <c r="T44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W44" t="n">
         <v>41</v>
@@ -5795,7 +5799,7 @@
         <v>7.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF44" t="n">
         <v>8.5</v>
@@ -5959,31 +5963,31 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L46" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N46" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -5992,13 +5996,13 @@
         <v>2.5</v>
       </c>
       <c r="R46" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T46" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U46" t="n">
         <v>11</v>
@@ -6016,13 +6020,13 @@
         <v>34</v>
       </c>
       <c r="Z46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA46" t="n">
         <v>6</v>
       </c>
       <c r="AB46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC46" t="n">
         <v>51</v>
@@ -6043,7 +6047,7 @@
         <v>26</v>
       </c>
       <c r="AI46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ46" t="n">
         <v>351</v>
@@ -6203,19 +6207,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I48" t="n">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L48" t="n">
         <v>1.2</v>
@@ -6224,10 +6228,10 @@
         <v>4.33</v>
       </c>
       <c r="N48" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O48" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P48" t="n">
         <v>1.33</v>
@@ -6236,61 +6240,61 @@
         <v>3.25</v>
       </c>
       <c r="R48" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U48" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="V48" t="n">
         <v>8.5</v>
       </c>
       <c r="W48" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z48" t="n">
         <v>13</v>
       </c>
       <c r="AA48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH48" t="n">
         <v>29</v>
       </c>
-      <c r="AF48" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>41</v>
-      </c>
       <c r="AI48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ48" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49">
@@ -6325,13 +6329,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J49" t="n">
         <v>1.06</v>
@@ -6367,49 +6371,49 @@
         <v>7.5</v>
       </c>
       <c r="U49" t="n">
+        <v>10</v>
+      </c>
+      <c r="V49" t="n">
         <v>9</v>
       </c>
-      <c r="V49" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W49" t="n">
+        <v>19</v>
+      </c>
+      <c r="X49" t="n">
         <v>17</v>
       </c>
-      <c r="X49" t="n">
-        <v>15</v>
-      </c>
       <c r="Y49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC49" t="n">
         <v>51</v>
       </c>
       <c r="AD49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF49" t="n">
         <v>12</v>
       </c>
-      <c r="AE49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>15</v>
-      </c>
       <c r="AG49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH49" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI49" t="n">
         <v>34</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>41</v>
       </c>
       <c r="AJ49" t="n">
         <v>201</v>
@@ -6569,19 +6573,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J51" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L51" t="n">
         <v>1.22</v>
@@ -6590,10 +6594,10 @@
         <v>4</v>
       </c>
       <c r="N51" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O51" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
         <v>1.36</v>
@@ -6602,7 +6606,7 @@
         <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S51" t="n">
         <v>2.2</v>
@@ -6617,16 +6621,16 @@
         <v>9</v>
       </c>
       <c r="W51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y51" t="n">
         <v>23</v>
       </c>
       <c r="Z51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA51" t="n">
         <v>6.5</v>
@@ -6641,13 +6645,13 @@
         <v>12</v>
       </c>
       <c r="AE51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="n">
         <v>12</v>
       </c>
       <c r="AG51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH51" t="n">
         <v>26</v>
@@ -6718,16 +6722,16 @@
         <v>1.65</v>
       </c>
       <c r="P52" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R52" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S52" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T52" t="n">
         <v>8</v>
@@ -6846,10 +6850,10 @@
         <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S53" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T53" t="n">
         <v>7.5</v>
@@ -6938,7 +6942,7 @@
         <v>7</v>
       </c>
       <c r="H54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I54" t="n">
         <v>1.38</v>
@@ -6971,7 +6975,7 @@
         <v>2.1</v>
       </c>
       <c r="S54" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T54" t="n">
         <v>17</v>
@@ -6992,7 +6996,7 @@
         <v>51</v>
       </c>
       <c r="Z54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA54" t="n">
         <v>8.5</v>
@@ -7007,10 +7011,10 @@
         <v>6.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG54" t="n">
         <v>9</v>
@@ -7057,13 +7061,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J55" t="n">
         <v>1.08</v>
@@ -7090,10 +7094,10 @@
         <v>2.5</v>
       </c>
       <c r="R55" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S55" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T55" t="n">
         <v>8</v>
@@ -7105,7 +7109,7 @@
         <v>11</v>
       </c>
       <c r="W55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X55" t="n">
         <v>26</v>
@@ -7126,19 +7130,19 @@
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF55" t="n">
         <v>10</v>
       </c>
       <c r="AG55" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH55" t="n">
         <v>23</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>21</v>
       </c>
       <c r="AI55" t="n">
         <v>34</v>
@@ -7301,13 +7305,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H57" t="n">
         <v>2.88</v>
       </c>
       <c r="I57" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J57" t="n">
         <v>1.11</v>
@@ -7316,10 +7320,10 @@
         <v>6.5</v>
       </c>
       <c r="L57" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M57" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N57" t="n">
         <v>2.5</v>
@@ -7334,10 +7338,10 @@
         <v>2.25</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S57" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -7349,7 +7353,7 @@
         <v>11</v>
       </c>
       <c r="W57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X57" t="n">
         <v>26</v>
@@ -7423,19 +7427,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H58" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J58" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L58" t="n">
         <v>1.25</v>
@@ -7450,16 +7454,16 @@
         <v>2</v>
       </c>
       <c r="P58" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T58" t="n">
         <v>9</v>
@@ -7468,10 +7472,10 @@
         <v>12</v>
       </c>
       <c r="V58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X58" t="n">
         <v>19</v>
@@ -7480,10 +7484,10 @@
         <v>26</v>
       </c>
       <c r="Z58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB58" t="n">
         <v>13</v>
@@ -7510,7 +7514,7 @@
         <v>29</v>
       </c>
       <c r="AJ58" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59">
@@ -7545,64 +7549,64 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I59" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="J59" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K59" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="L59" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M59" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N59" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R59" t="n">
         <v>1.83</v>
       </c>
-      <c r="P59" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R59" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S59" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U59" t="n">
+        <v>17</v>
+      </c>
+      <c r="V59" t="n">
         <v>13</v>
       </c>
-      <c r="V59" t="n">
-        <v>11</v>
-      </c>
       <c r="W59" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="X59" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y59" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA59" t="n">
         <v>6.5</v>
@@ -7614,25 +7618,25 @@
         <v>51</v>
       </c>
       <c r="AD59" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AF59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AH59" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI59" t="n">
         <v>29</v>
       </c>
       <c r="AJ59" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="60">
@@ -7667,13 +7671,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J60" t="n">
         <v>23</v>
@@ -7721,7 +7725,7 @@
         <v>15</v>
       </c>
       <c r="Y60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z60" t="n">
         <v>23</v>
@@ -7736,7 +7740,7 @@
         <v>29</v>
       </c>
       <c r="AD60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE60" t="n">
         <v>21</v>
@@ -7751,7 +7755,7 @@
         <v>21</v>
       </c>
       <c r="AI60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ60" t="n">
         <v>81</v>
@@ -7792,10 +7796,10 @@
         <v>1.7</v>
       </c>
       <c r="H61" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
@@ -7804,55 +7808,55 @@
         <v>15</v>
       </c>
       <c r="L61" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M61" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N61" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O61" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P61" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R61" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S61" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U61" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V61" t="n">
         <v>8.5</v>
       </c>
       <c r="W61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X61" t="n">
         <v>13</v>
       </c>
       <c r="Y61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z61" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB61" t="n">
         <v>13</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>15</v>
       </c>
       <c r="AC61" t="n">
         <v>41</v>
@@ -7867,7 +7871,7 @@
         <v>15</v>
       </c>
       <c r="AG61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH61" t="n">
         <v>34</v>
@@ -7932,10 +7936,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O62" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P62" t="n">
         <v>1.33</v>
@@ -7998,7 +8002,7 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63">
@@ -8277,10 +8281,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I65" t="n">
         <v>4</v>
@@ -8289,82 +8293,82 @@
         <v>1.05</v>
       </c>
       <c r="K65" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="L65" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="M65" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="N65" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="O65" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="P65" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="R65" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T65" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="U65" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="V65" t="n">
         <v>8.25</v>
       </c>
       <c r="W65" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X65" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z65" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AA65" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AB65" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC65" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD65" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF65" t="n">
         <v>13</v>
       </c>
       <c r="AG65" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AH65" t="n">
         <v>35</v>
       </c>
       <c r="AI65" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ65" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66">
@@ -8521,49 +8525,49 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H67" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I67" t="n">
         <v>4.4</v>
       </c>
       <c r="J67" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K67" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="L67" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M67" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="N67" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="O67" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="P67" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="R67" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S67" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="T67" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="U67" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V67" t="n">
         <v>7.9</v>
@@ -8572,28 +8576,28 @@
         <v>17</v>
       </c>
       <c r="X67" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z67" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AA67" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB67" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC67" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AD67" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE67" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF67" t="n">
         <v>13.5</v>
@@ -8605,10 +8609,10 @@
         <v>40</v>
       </c>
       <c r="AI67" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ67" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68">
@@ -8765,13 +8769,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H69" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -8779,7 +8783,7 @@
         <v>1.4</v>
       </c>
       <c r="M69" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="N69" t="n">
         <v>2.15</v>
@@ -8788,25 +8792,25 @@
         <v>1.55</v>
       </c>
       <c r="P69" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R69" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S69" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T69" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U69" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="V69" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W69" t="n">
         <v>50</v>
@@ -8818,37 +8822,37 @@
         <v>50</v>
       </c>
       <c r="Z69" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB69" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC69" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD69" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AE69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF69" t="n">
         <v>9</v>
       </c>
       <c r="AG69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH69" t="n">
         <v>18.5</v>
       </c>
       <c r="AI69" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ69" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70">
@@ -8883,13 +8887,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H70" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="I70" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -8900,16 +8904,16 @@
         <v>2.47</v>
       </c>
       <c r="N70" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O70" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P70" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R70" t="n">
         <v>1.83</v>
@@ -8918,7 +8922,7 @@
         <v>1.78</v>
       </c>
       <c r="T70" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U70" t="n">
         <v>10.25</v>
@@ -8930,16 +8934,16 @@
         <v>23</v>
       </c>
       <c r="X70" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y70" t="n">
         <v>32</v>
       </c>
       <c r="Z70" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA70" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB70" t="n">
         <v>14.5</v>
@@ -8951,7 +8955,7 @@
         <v>8.75</v>
       </c>
       <c r="AE70" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF70" t="n">
         <v>12.5</v>
@@ -9001,24 +9005,24 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H71" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I71" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M71" t="n">
         <v>2.57</v>
       </c>
       <c r="N71" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O71" t="n">
         <v>1.57</v>
@@ -9030,58 +9034,58 @@
         <v>2.4</v>
       </c>
       <c r="R71" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S71" t="n">
         <v>1.62</v>
       </c>
       <c r="T71" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U71" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="V71" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W71" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X71" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y71" t="n">
         <v>35</v>
       </c>
       <c r="Z71" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB71" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC71" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG71" t="n">
         <v>110</v>
       </c>
-      <c r="AD71" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>100</v>
-      </c>
       <c r="AH71" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI71" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
         <v>6.5</v>
@@ -659,13 +659,13 @@
         <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N2" t="n">
         <v>1.73</v>
@@ -689,13 +689,13 @@
         <v>7.5</v>
       </c>
       <c r="U2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
         <v>8.5</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -722,13 +722,13 @@
         <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
         <v>67</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>1.13</v>
@@ -796,10 +796,10 @@
         <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
         <v>2.1</v>
@@ -814,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
         <v>23</v>
@@ -832,7 +832,7 @@
         <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -954,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>81</v>
@@ -963,10 +963,10 @@
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>67</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1034,16 +1034,16 @@
         <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
         <v>2</v>
@@ -1055,22 +1055,22 @@
         <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W5" t="n">
         <v>15</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1085,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
@@ -1150,10 +1150,10 @@
         <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N6" t="n">
         <v>3.4</v>
@@ -1204,7 +1204,7 @@
         <v>101</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1323,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD7" t="n">
         <v>12</v>
@@ -1338,10 +1338,10 @@
         <v>41</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
         <v>201</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
         <v>3.7</v>
@@ -1510,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
         <v>1.18</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>1.05</v>
@@ -1665,19 +1665,19 @@
         <v>8.5</v>
       </c>
       <c r="U10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V10" t="n">
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
@@ -1689,10 +1689,10 @@
         <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -1701,10 +1701,10 @@
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>29</v>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
         <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2028,16 +2028,16 @@
         <v>1.83</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V13" t="n">
         <v>10</v>
       </c>
       <c r="W13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2058,7 +2058,7 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
@@ -2114,34 +2114,34 @@
         <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
         <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N14" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R14" t="n">
         <v>2.5</v>
@@ -2156,25 +2156,25 @@
         <v>6</v>
       </c>
       <c r="V14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W14" t="n">
         <v>10</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
         <v>41</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA14" t="n">
         <v>7.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
         <v>101</v>
@@ -2186,13 +2186,13 @@
         <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
         <v>81</v>
       </c>
       <c r="AH14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI14" t="n">
         <v>67</v>
@@ -2492,16 +2492,16 @@
         <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P17" t="n">
         <v>1.36</v>
@@ -2602,16 +2602,16 @@
         <v>2.5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
         <v>2.9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2656,7 +2656,7 @@
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2665,10 +2665,10 @@
         <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J19" t="n">
         <v>1.06</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.11</v>
@@ -2876,13 +2876,13 @@
         <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U20" t="n">
         <v>8.5</v>
@@ -2912,10 +2912,10 @@
         <v>67</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>15</v>
@@ -2986,10 +2986,10 @@
         <v>2.5</v>
       </c>
       <c r="N21" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
         <v>1.57</v>
@@ -3209,13 +3209,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.04</v>
@@ -3224,16 +3224,16 @@
         <v>13</v>
       </c>
       <c r="L23" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P23" t="n">
         <v>1.33</v>
@@ -3242,49 +3242,49 @@
         <v>3.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V23" t="n">
         <v>8.5</v>
       </c>
       <c r="W23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
         <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="n">
         <v>8</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>41</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
         <v>81</v>
@@ -3296,7 +3296,7 @@
         <v>51</v>
       </c>
       <c r="AJ23" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -3346,16 +3346,16 @@
         <v>17</v>
       </c>
       <c r="L24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O24" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P24" t="n">
         <v>1.29</v>
@@ -3610,7 +3610,7 @@
         <v>1.6</v>
       </c>
       <c r="T26" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U26" t="n">
         <v>12</v>
@@ -3622,7 +3622,7 @@
         <v>32</v>
       </c>
       <c r="X26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y26" t="n">
         <v>50</v>
@@ -3640,7 +3640,7 @@
         <v>120</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE26" t="n">
         <v>11.5</v>
@@ -3652,7 +3652,7 @@
         <v>30</v>
       </c>
       <c r="AH26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
         <v>50</v>
@@ -3814,10 +3814,10 @@
         <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3840,7 +3840,7 @@
         <v>2.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S28" t="n">
         <v>1.82</v>
@@ -3879,7 +3879,7 @@
         <v>9.75</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF28" t="n">
         <v>12.5</v>
@@ -3894,7 +3894,7 @@
         <v>45</v>
       </c>
       <c r="AJ28" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -3932,10 +3932,10 @@
         <v>1.62</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3952,7 +3952,7 @@
         <v>1.62</v>
       </c>
       <c r="P29" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q29" t="n">
         <v>2.4</v>
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.05</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I30" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -4076,37 +4076,37 @@
         <v>2.27</v>
       </c>
       <c r="R30" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S30" t="n">
         <v>1.72</v>
       </c>
       <c r="T30" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="U30" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="V30" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y30" t="n">
         <v>45</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC30" t="n">
         <v>90</v>
@@ -4118,16 +4118,16 @@
         <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ30" t="n">
         <v>900</v>
@@ -4200,25 +4200,25 @@
         <v>1.65</v>
       </c>
       <c r="T31" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U31" t="n">
         <v>8.75</v>
       </c>
       <c r="V31" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W31" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z31" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA31" t="n">
         <v>6.1</v>
@@ -4230,22 +4230,22 @@
         <v>110</v>
       </c>
       <c r="AD31" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG31" t="n">
         <v>55</v>
       </c>
       <c r="AH31" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI31" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ31" t="n">
         <v>900</v>
@@ -4286,10 +4286,10 @@
         <v>2.52</v>
       </c>
       <c r="H32" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -4312,16 +4312,16 @@
         <v>2.22</v>
       </c>
       <c r="R32" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T32" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="U32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V32" t="n">
         <v>9.5</v>
@@ -4330,7 +4330,7 @@
         <v>29</v>
       </c>
       <c r="X32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
         <v>35</v>
@@ -4339,34 +4339,34 @@
         <v>7.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB32" t="n">
         <v>14</v>
       </c>
       <c r="AC32" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AE32" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG32" t="n">
         <v>40</v>
       </c>
       <c r="AH32" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33">
@@ -4401,22 +4401,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K33" t="n">
         <v>19</v>
       </c>
       <c r="L33" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M33" t="n">
         <v>5.5</v>
@@ -4428,31 +4428,31 @@
         <v>2.5</v>
       </c>
       <c r="P33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S33" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T33" t="n">
         <v>17</v>
       </c>
       <c r="U33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y33" t="n">
         <v>29</v>
@@ -4461,7 +4461,7 @@
         <v>19</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB33" t="n">
         <v>13</v>
@@ -4479,7 +4479,7 @@
         <v>8.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>12</v>
@@ -4523,19 +4523,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K34" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L34" t="n">
         <v>1.25</v>
@@ -4562,7 +4562,7 @@
         <v>1.8</v>
       </c>
       <c r="T34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U34" t="n">
         <v>7</v>
@@ -4571,10 +4571,10 @@
         <v>8.5</v>
       </c>
       <c r="W34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
         <v>26</v>
@@ -4586,7 +4586,7 @@
         <v>8</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
@@ -4595,7 +4595,7 @@
         <v>15</v>
       </c>
       <c r="AE34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF34" t="n">
         <v>19</v>
@@ -4604,13 +4604,13 @@
         <v>67</v>
       </c>
       <c r="AH34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ34" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35">
@@ -4788,10 +4788,10 @@
         <v>2.63</v>
       </c>
       <c r="N36" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P36" t="n">
         <v>1.57</v>
@@ -5133,19 +5133,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H39" t="n">
         <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.44</v>
@@ -5166,16 +5166,16 @@
         <v>2.38</v>
       </c>
       <c r="R39" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V39" t="n">
         <v>13</v>
@@ -5190,13 +5190,13 @@
         <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA39" t="n">
         <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
         <v>67</v>
@@ -5205,13 +5205,13 @@
         <v>6</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF39" t="n">
         <v>9.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH39" t="n">
         <v>19</v>
@@ -5220,7 +5220,7 @@
         <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40">
@@ -5258,16 +5258,16 @@
         <v>2.95</v>
       </c>
       <c r="H40" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K40" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="L40" t="n">
         <v>1.4</v>
@@ -5288,55 +5288,55 @@
         <v>2.42</v>
       </c>
       <c r="R40" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S40" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T40" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="U40" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V40" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W40" t="n">
         <v>37</v>
       </c>
       <c r="X40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y40" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB40" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE40" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI40" t="n">
         <v>35</v>
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H41" t="n">
         <v>3.45</v>
@@ -5398,7 +5398,7 @@
         <v>2.92</v>
       </c>
       <c r="N41" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O41" t="n">
         <v>1.7</v>
@@ -5416,31 +5416,31 @@
         <v>1.75</v>
       </c>
       <c r="T41" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="U41" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V41" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W41" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X41" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y41" t="n">
         <v>60</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>65</v>
       </c>
       <c r="Z41" t="n">
         <v>6.7</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB41" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC41" t="n">
         <v>100</v>
@@ -5449,7 +5449,7 @@
         <v>6</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF41" t="n">
         <v>8.25</v>
@@ -5458,13 +5458,13 @@
         <v>12.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI41" t="n">
         <v>30</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42">
@@ -5512,18 +5512,18 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="O42" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>2.31</v>
+        <v>2.65</v>
       </c>
       <c r="S42" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="T42" t="n">
         <v>35</v>
@@ -5623,7 +5623,7 @@
         <v>1.27</v>
       </c>
       <c r="M43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N43" t="n">
         <v>1.8</v>
@@ -5638,10 +5638,10 @@
         <v>2.52</v>
       </c>
       <c r="R43" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S43" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="T43" t="n">
         <v>11.25</v>
@@ -5727,46 +5727,46 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
         <v>1.8</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K44" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M44" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N44" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="O44" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="P44" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S44" t="n">
         <v>1.8</v>
       </c>
-      <c r="S44" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U44" t="n">
         <v>23</v>
@@ -5775,31 +5775,31 @@
         <v>15</v>
       </c>
       <c r="W44" t="n">
+        <v>51</v>
+      </c>
+      <c r="X44" t="n">
         <v>41</v>
-      </c>
-      <c r="X44" t="n">
-        <v>34</v>
       </c>
       <c r="Y44" t="n">
         <v>41</v>
       </c>
       <c r="Z44" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA44" t="n">
         <v>7</v>
       </c>
       <c r="AB44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC44" t="n">
         <v>51</v>
       </c>
       <c r="AD44" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF44" t="n">
         <v>8.5</v>
@@ -5811,10 +5811,10 @@
         <v>15</v>
       </c>
       <c r="AI44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ44" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45">
@@ -5849,13 +5849,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5874,25 +5874,25 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S45" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="T45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U45" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V45" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W45" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X45" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y45" t="n">
         <v>20</v>
@@ -5901,34 +5901,34 @@
         <v>15.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB45" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC45" t="n">
         <v>32</v>
       </c>
       <c r="AD45" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH45" t="n">
         <v>18</v>
       </c>
-      <c r="AF45" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI45" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46">
@@ -6207,49 +6207,49 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H48" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K48" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L48" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M48" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="O48" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="P48" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R48" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S48" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T48" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V48" t="n">
         <v>8.5</v>
@@ -6264,10 +6264,10 @@
         <v>21</v>
       </c>
       <c r="Z48" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB48" t="n">
         <v>13</v>
@@ -6276,10 +6276,10 @@
         <v>41</v>
       </c>
       <c r="AD48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF48" t="n">
         <v>13</v>
@@ -6291,10 +6291,10 @@
         <v>29</v>
       </c>
       <c r="AI48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ48" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
@@ -6335,7 +6335,7 @@
         <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J49" t="n">
         <v>1.06</v>
@@ -6362,10 +6362,10 @@
         <v>2.75</v>
       </c>
       <c r="R49" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S49" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T49" t="n">
         <v>7.5</v>
@@ -6407,7 +6407,7 @@
         <v>12</v>
       </c>
       <c r="AG49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH49" t="n">
         <v>29</v>
@@ -6451,19 +6451,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H50" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J50" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L50" t="n">
         <v>1.25</v>
@@ -6478,10 +6478,10 @@
         <v>2</v>
       </c>
       <c r="P50" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
         <v>1.67</v>
@@ -6496,10 +6496,10 @@
         <v>13</v>
       </c>
       <c r="V50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X50" t="n">
         <v>19</v>
@@ -6508,7 +6508,7 @@
         <v>26</v>
       </c>
       <c r="Z50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA50" t="n">
         <v>6.5</v>
@@ -6573,13 +6573,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J51" t="n">
         <v>1.04</v>
@@ -6606,13 +6606,13 @@
         <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U51" t="n">
         <v>11</v>
@@ -6642,13 +6642,13 @@
         <v>41</v>
       </c>
       <c r="AD51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE51" t="n">
         <v>19</v>
       </c>
       <c r="AF51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG51" t="n">
         <v>41</v>
@@ -6657,7 +6657,7 @@
         <v>26</v>
       </c>
       <c r="AI51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ51" t="n">
         <v>151</v>
@@ -6716,10 +6716,10 @@
         <v>2.77</v>
       </c>
       <c r="N52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O52" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P52" t="n">
         <v>1.5</v>
@@ -6817,13 +6817,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H53" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I53" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J53" t="n">
         <v>1.05</v>
@@ -6832,16 +6832,16 @@
         <v>11</v>
       </c>
       <c r="L53" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M53" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N53" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P53" t="n">
         <v>1.36</v>
@@ -6856,7 +6856,7 @@
         <v>1.83</v>
       </c>
       <c r="T53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U53" t="n">
         <v>8</v>
@@ -6865,7 +6865,7 @@
         <v>8.5</v>
       </c>
       <c r="W53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X53" t="n">
         <v>13</v>
@@ -6889,7 +6889,7 @@
         <v>13</v>
       </c>
       <c r="AE53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF53" t="n">
         <v>15</v>
@@ -6939,19 +6939,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I54" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J54" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
         <v>1.25</v>
@@ -6972,10 +6972,10 @@
         <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S54" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T54" t="n">
         <v>17</v>
@@ -6987,7 +6987,7 @@
         <v>23</v>
       </c>
       <c r="W54" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="X54" t="n">
         <v>51</v>
@@ -6999,16 +6999,16 @@
         <v>10</v>
       </c>
       <c r="AA54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE54" t="n">
         <v>6</v>
@@ -7017,13 +7017,13 @@
         <v>9</v>
       </c>
       <c r="AG54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH54" t="n">
         <v>13</v>
       </c>
       <c r="AI54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ54" t="n">
         <v>900</v>
@@ -7061,13 +7061,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J55" t="n">
         <v>1.08</v>
@@ -7124,25 +7124,25 @@
         <v>6</v>
       </c>
       <c r="AB55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC55" t="n">
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF55" t="n">
         <v>10</v>
       </c>
       <c r="AG55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI55" t="n">
         <v>34</v>
@@ -7186,10 +7186,10 @@
         <v>1.95</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J56" t="n">
         <v>1.08</v>
@@ -7228,7 +7228,7 @@
         <v>8.5</v>
       </c>
       <c r="V56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W56" t="n">
         <v>17</v>
@@ -7246,13 +7246,13 @@
         <v>6.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC56" t="n">
         <v>67</v>
       </c>
       <c r="AD56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE56" t="n">
         <v>19</v>
@@ -7305,19 +7305,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H57" t="n">
         <v>2.88</v>
       </c>
       <c r="I57" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J57" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L57" t="n">
         <v>1.5</v>
@@ -7338,10 +7338,10 @@
         <v>2.25</v>
       </c>
       <c r="R57" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -7353,7 +7353,7 @@
         <v>11</v>
       </c>
       <c r="W57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X57" t="n">
         <v>26</v>
@@ -7427,13 +7427,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H58" t="n">
         <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J58" t="n">
         <v>1.02</v>
@@ -7448,7 +7448,7 @@
         <v>3.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O58" t="n">
         <v>2</v>
@@ -7466,16 +7466,16 @@
         <v>2.1</v>
       </c>
       <c r="T58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U58" t="n">
         <v>12</v>
       </c>
       <c r="V58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X58" t="n">
         <v>19</v>
@@ -7505,7 +7505,7 @@
         <v>11</v>
       </c>
       <c r="AG58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH58" t="n">
         <v>21</v>
@@ -7549,19 +7549,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H59" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K59" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="L59" t="n">
         <v>1.33</v>
@@ -7588,25 +7588,25 @@
         <v>1.83</v>
       </c>
       <c r="T59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z59" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA59" t="n">
         <v>6.5</v>
@@ -7621,16 +7621,16 @@
         <v>7.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF59" t="n">
         <v>9.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI59" t="n">
         <v>29</v>
@@ -7671,49 +7671,49 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I60" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J60" t="n">
-        <v>23</v>
+        <v>1.02</v>
       </c>
       <c r="K60" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="L60" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M60" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P60" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T60" t="n">
         <v>13</v>
       </c>
       <c r="U60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V60" t="n">
         <v>9.5</v>
@@ -7725,10 +7725,10 @@
         <v>15</v>
       </c>
       <c r="Y60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA60" t="n">
         <v>8.5</v>
@@ -7740,7 +7740,7 @@
         <v>29</v>
       </c>
       <c r="AD60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE60" t="n">
         <v>21</v>
@@ -7915,19 +7915,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I62" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K62" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L62" t="n">
         <v>1.22</v>
@@ -7936,10 +7936,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O62" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P62" t="n">
         <v>1.33</v>
@@ -7954,10 +7954,10 @@
         <v>2</v>
       </c>
       <c r="T62" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V62" t="n">
         <v>8.5</v>
@@ -7987,22 +7987,22 @@
         <v>15</v>
       </c>
       <c r="AE62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG62" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI62" t="n">
         <v>41</v>
       </c>
       <c r="AJ62" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63">
@@ -8046,10 +8046,10 @@
         <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K63" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L63" t="n">
         <v>1.33</v>
@@ -8159,94 +8159,94 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="H64" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I64" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="J64" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K64" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="L64" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="M64" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N64" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O64" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="P64" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="R64" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="S64" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="T64" t="n">
+        <v>11</v>
+      </c>
+      <c r="U64" t="n">
+        <v>16</v>
+      </c>
+      <c r="V64" t="n">
         <v>10</v>
       </c>
-      <c r="U64" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="V64" t="n">
-        <v>10.25</v>
-      </c>
       <c r="W64" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X64" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y64" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z64" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AB64" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC64" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD64" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AE64" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF64" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG64" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH64" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI64" t="n">
         <v>23</v>
       </c>
       <c r="AJ64" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65">
@@ -8281,49 +8281,49 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H65" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J65" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L65" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M65" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="N65" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O65" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="P65" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="R65" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S65" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="T65" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="U65" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V65" t="n">
         <v>8.25</v>
@@ -8332,25 +8332,25 @@
         <v>15</v>
       </c>
       <c r="X65" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y65" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC65" t="n">
         <v>50</v>
       </c>
       <c r="AD65" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE65" t="n">
         <v>24</v>
@@ -8359,16 +8359,16 @@
         <v>13</v>
       </c>
       <c r="AG65" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AH65" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI65" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ65" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66">
@@ -8525,37 +8525,37 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="H67" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I67" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J67" t="n">
         <v>1.06</v>
       </c>
       <c r="K67" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="L67" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M67" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N67" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="O67" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P67" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R67" t="n">
         <v>1.62</v>
@@ -8567,25 +8567,25 @@
         <v>7.6</v>
       </c>
       <c r="U67" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V67" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W67" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="X67" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z67" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AA67" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB67" t="n">
         <v>11.75</v>
@@ -8594,19 +8594,19 @@
         <v>45</v>
       </c>
       <c r="AD67" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE67" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF67" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG67" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AH67" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI67" t="n">
         <v>35</v>
@@ -8769,13 +8769,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="H69" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I69" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -8798,55 +8798,55 @@
         <v>2.27</v>
       </c>
       <c r="R69" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S69" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T69" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="U69" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="V69" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="W69" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X69" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y69" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z69" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB69" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG69" t="n">
         <v>17</v>
       </c>
-      <c r="AC69" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>19</v>
-      </c>
       <c r="AH69" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI69" t="n">
         <v>35</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>2.77</v>
@@ -8898,13 +8898,13 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M70" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="N70" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O70" t="n">
         <v>1.53</v>
@@ -8922,25 +8922,25 @@
         <v>1.78</v>
       </c>
       <c r="T70" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="U70" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="V70" t="n">
         <v>8.75</v>
       </c>
       <c r="W70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X70" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y70" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z70" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA70" t="n">
         <v>5.5</v>
@@ -8952,22 +8952,22 @@
         <v>80</v>
       </c>
       <c r="AD70" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF70" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG70" t="n">
         <v>60</v>
       </c>
       <c r="AH70" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI70" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ70" t="n">
         <v>700</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -716,7 +716,7 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>34</v>
@@ -725,13 +725,13 @@
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ2" t="n">
         <v>251</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>1.13</v>
@@ -784,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N3" t="n">
         <v>2.75</v>
@@ -796,10 +796,10 @@
         <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
         <v>2.1</v>
@@ -814,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W3" t="n">
         <v>23</v>
@@ -832,7 +832,7 @@
         <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
@@ -1022,10 +1022,10 @@
         <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1141,13 +1141,13 @@
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>1.67</v>
@@ -1192,7 +1192,7 @@
         <v>51</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
@@ -1207,13 +1207,13 @@
         <v>5.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>29</v>
@@ -1754,10 +1754,10 @@
         <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>1.36</v>
@@ -1766,10 +1766,10 @@
         <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
         <v>1.44</v>
@@ -1888,10 +1888,10 @@
         <v>2.75</v>
       </c>
       <c r="N12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
         <v>1.5</v>
@@ -2355,37 +2355,37 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N16" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R16" t="n">
         <v>2.1</v>
@@ -2403,16 +2403,16 @@
         <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
         <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA16" t="n">
         <v>6.5</v>
@@ -2424,10 +2424,10 @@
         <v>67</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>15</v>
@@ -2442,7 +2442,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2498,10 +2498,10 @@
         <v>3.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O17" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P17" t="n">
         <v>1.36</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
         <v>1.07</v>
@@ -2638,19 +2638,19 @@
         <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W18" t="n">
         <v>23</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
         <v>29</v>
@@ -2674,13 +2674,13 @@
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
         <v>34</v>
@@ -2721,31 +2721,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2772,7 +2772,7 @@
         <v>29</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
         <v>29</v>
@@ -2784,7 +2784,7 @@
         <v>6.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
         <v>41</v>
@@ -2805,7 +2805,7 @@
         <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>201</v>
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -2864,10 +2864,10 @@
         <v>2.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P20" t="n">
         <v>1.57</v>
@@ -2885,10 +2885,10 @@
         <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
         <v>19</v>
@@ -2924,10 +2924,10 @@
         <v>41</v>
       </c>
       <c r="AH20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI20" t="n">
         <v>41</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>51</v>
       </c>
       <c r="AJ20" t="n">
         <v>101</v>
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H22" t="n">
         <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
         <v>1.08</v>
@@ -3126,10 +3126,10 @@
         <v>1.83</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V22" t="n">
         <v>9.5</v>
@@ -3138,13 +3138,13 @@
         <v>21</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
         <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA22" t="n">
         <v>5.5</v>
@@ -3209,13 +3209,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.04</v>
@@ -3224,16 +3224,16 @@
         <v>13</v>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O23" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P23" t="n">
         <v>1.33</v>
@@ -3251,19 +3251,19 @@
         <v>7.5</v>
       </c>
       <c r="U23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V23" t="n">
         <v>8.5</v>
       </c>
       <c r="W23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X23" t="n">
         <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z23" t="n">
         <v>12</v>
@@ -3284,7 +3284,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>81</v>
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.03</v>
@@ -3346,16 +3346,16 @@
         <v>17</v>
       </c>
       <c r="L24" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M24" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O24" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P24" t="n">
         <v>1.29</v>
@@ -3379,7 +3379,7 @@
         <v>8.5</v>
       </c>
       <c r="W24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>
@@ -3388,13 +3388,13 @@
         <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
         <v>51</v>
@@ -3418,7 +3418,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
@@ -3814,10 +3814,10 @@
         <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3840,31 +3840,31 @@
         <v>2.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S28" t="n">
         <v>1.82</v>
       </c>
       <c r="T28" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U28" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA28" t="n">
         <v>6.3</v>
@@ -3876,10 +3876,10 @@
         <v>75</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AE28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF28" t="n">
         <v>12.5</v>
@@ -3888,10 +3888,10 @@
         <v>55</v>
       </c>
       <c r="AH28" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI28" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ28" t="n">
         <v>600</v>
@@ -3929,45 +3929,45 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M29" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="N29" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="O29" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S29" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T29" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U29" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
@@ -3976,13 +3976,13 @@
         <v>11.25</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA29" t="n">
         <v>7.2</v>
@@ -3991,16 +3991,16 @@
         <v>21</v>
       </c>
       <c r="AC29" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AE29" t="n">
         <v>28</v>
       </c>
       <c r="AF29" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG29" t="n">
         <v>100</v>
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -4076,22 +4076,22 @@
         <v>2.27</v>
       </c>
       <c r="R30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S30" t="n">
         <v>1.72</v>
       </c>
       <c r="T30" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U30" t="n">
         <v>15.5</v>
       </c>
       <c r="V30" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X30" t="n">
         <v>32</v>
@@ -4100,34 +4100,34 @@
         <v>45</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC30" t="n">
         <v>90</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF30" t="n">
         <v>9.25</v>
       </c>
       <c r="AG30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ30" t="n">
         <v>900</v>
@@ -4283,21 +4283,21 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H32" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I32" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M32" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="N32" t="n">
         <v>2.15</v>
@@ -4312,58 +4312,58 @@
         <v>2.22</v>
       </c>
       <c r="R32" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S32" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T32" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U32" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="V32" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W32" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y32" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA32" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="n">
         <v>7.7</v>
       </c>
       <c r="AE32" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AG32" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI32" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ32" t="n">
         <v>700</v>
@@ -4401,55 +4401,55 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I33" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="J33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
+        <v>21</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T33" t="n">
         <v>19</v>
       </c>
-      <c r="L33" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T33" t="n">
-        <v>17</v>
-      </c>
       <c r="U33" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X33" t="n">
         <v>29</v>
@@ -4458,22 +4458,22 @@
         <v>29</v>
       </c>
       <c r="Z33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB33" t="n">
         <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF33" t="n">
         <v>8.5</v>
@@ -4488,7 +4488,7 @@
         <v>19</v>
       </c>
       <c r="AJ33" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
@@ -4523,19 +4523,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H34" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L34" t="n">
         <v>1.25</v>
@@ -4544,10 +4544,10 @@
         <v>3.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P34" t="n">
         <v>1.36</v>
@@ -4562,7 +4562,7 @@
         <v>1.8</v>
       </c>
       <c r="T34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U34" t="n">
         <v>7</v>
@@ -4583,7 +4583,7 @@
         <v>11</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB34" t="n">
         <v>19</v>
@@ -4592,16 +4592,16 @@
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE34" t="n">
         <v>34</v>
       </c>
       <c r="AF34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="n">
         <v>51</v>
@@ -4654,10 +4654,10 @@
         <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L35" t="n">
         <v>1.3</v>
@@ -4666,10 +4666,10 @@
         <v>3.4</v>
       </c>
       <c r="N35" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P35" t="n">
         <v>1.4</v>
@@ -4767,76 +4767,76 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N36" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O36" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P36" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S36" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U36" t="n">
         <v>8.5</v>
       </c>
       <c r="V36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W36" t="n">
         <v>17</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
         <v>67</v>
       </c>
       <c r="AD36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE36" t="n">
         <v>19</v>
@@ -4848,13 +4848,13 @@
         <v>41</v>
       </c>
       <c r="AH36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI36" t="n">
         <v>41</v>
       </c>
-      <c r="AI36" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37">
@@ -5017,19 +5017,19 @@
         <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J38" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N38" t="n">
         <v>2.35</v>
@@ -5038,10 +5038,10 @@
         <v>1.57</v>
       </c>
       <c r="P38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R38" t="n">
         <v>2.1</v>
@@ -5068,7 +5068,7 @@
         <v>34</v>
       </c>
       <c r="Z38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA38" t="n">
         <v>6.5</v>
@@ -5086,7 +5086,7 @@
         <v>21</v>
       </c>
       <c r="AF38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG38" t="n">
         <v>51</v>
@@ -5133,10 +5133,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
         <v>2.1</v>
@@ -5145,13 +5145,13 @@
         <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N39" t="n">
         <v>2.35</v>
@@ -5160,10 +5160,10 @@
         <v>1.57</v>
       </c>
       <c r="P39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R39" t="n">
         <v>2</v>
@@ -5172,10 +5172,10 @@
         <v>1.75</v>
       </c>
       <c r="T39" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V39" t="n">
         <v>13</v>
@@ -5190,7 +5190,7 @@
         <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA39" t="n">
         <v>6</v>
@@ -5199,10 +5199,10 @@
         <v>17</v>
       </c>
       <c r="AC39" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE39" t="n">
         <v>9</v>
@@ -5220,7 +5220,7 @@
         <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40">
@@ -5255,19 +5255,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="H40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J40" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L40" t="n">
         <v>1.4</v>
@@ -5288,43 +5288,43 @@
         <v>2.42</v>
       </c>
       <c r="R40" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S40" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T40" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="U40" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="V40" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W40" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="X40" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y40" t="n">
         <v>40</v>
       </c>
       <c r="Z40" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB40" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE40" t="n">
         <v>10.5</v>
@@ -5339,7 +5339,7 @@
         <v>21</v>
       </c>
       <c r="AI40" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ40" t="n">
         <v>800</v>
@@ -5377,13 +5377,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J41" t="n">
         <v>1.07</v>
@@ -5416,10 +5416,10 @@
         <v>1.75</v>
       </c>
       <c r="T41" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="U41" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V41" t="n">
         <v>16</v>
@@ -5440,22 +5440,22 @@
         <v>6.8</v>
       </c>
       <c r="AB41" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC41" t="n">
         <v>100</v>
       </c>
       <c r="AD41" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AF41" t="n">
         <v>8.25</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
         <v>14.5</v>
@@ -5499,40 +5499,40 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="H42" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I42" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="O42" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="S42" t="n">
         <v>1.43</v>
       </c>
       <c r="T42" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="V42" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W42" t="n">
         <v>500</v>
@@ -5541,34 +5541,34 @@
         <v>250</v>
       </c>
       <c r="Y42" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Z42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB42" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC42" t="n">
         <v>150</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AE42" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AF42" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG42" t="n">
         <v>5.1</v>
       </c>
       <c r="AH42" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI42" t="n">
         <v>32</v>
@@ -5612,48 +5612,48 @@
         <v>5.4</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M43" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N43" t="n">
         <v>1.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P43" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="R43" t="n">
         <v>1.9</v>
       </c>
       <c r="S43" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T43" t="n">
         <v>11.25</v>
       </c>
       <c r="U43" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V43" t="n">
         <v>14.5</v>
       </c>
       <c r="W43" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="X43" t="n">
         <v>45</v>
@@ -5662,37 +5662,37 @@
         <v>45</v>
       </c>
       <c r="Z43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AD43" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AE43" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="AF43" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG43" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH43" t="n">
         <v>10.25</v>
       </c>
       <c r="AI43" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44">
@@ -5727,31 +5727,31 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="J44" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K44" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L44" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M44" t="n">
         <v>3.4</v>
       </c>
       <c r="N44" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P44" t="n">
         <v>1.44</v>
@@ -5766,13 +5766,13 @@
         <v>1.8</v>
       </c>
       <c r="T44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W44" t="n">
         <v>51</v>
@@ -5799,13 +5799,13 @@
         <v>6.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF44" t="n">
         <v>8.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH44" t="n">
         <v>15</v>
@@ -5814,7 +5814,7 @@
         <v>29</v>
       </c>
       <c r="AJ44" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45">
@@ -5849,86 +5849,86 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I45" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M45" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O45" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S45" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="T45" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="U45" t="n">
+        <v>19</v>
+      </c>
+      <c r="V45" t="n">
+        <v>10</v>
+      </c>
+      <c r="W45" t="n">
+        <v>35</v>
+      </c>
+      <c r="X45" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z45" t="n">
         <v>16.5</v>
       </c>
-      <c r="V45" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W45" t="n">
+      <c r="AA45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AC45" t="n">
         <v>30</v>
       </c>
-      <c r="X45" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z45" t="n">
+      <c r="AD45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE45" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA45" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>16</v>
-      </c>
       <c r="AF45" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG45" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH45" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AJ45" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46">
@@ -6094,16 +6094,16 @@
         <v>2.7</v>
       </c>
       <c r="J47" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K47" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="L47" t="n">
         <v>1.45</v>
       </c>
       <c r="M47" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="N47" t="n">
         <v>2.35</v>
@@ -6115,13 +6115,13 @@
         <v>1.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="R47" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T47" t="n">
         <v>7</v>
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H49" t="n">
         <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J49" t="n">
         <v>1.06</v>
@@ -6362,10 +6362,10 @@
         <v>2.75</v>
       </c>
       <c r="R49" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T49" t="n">
         <v>7.5</v>
@@ -6401,10 +6401,10 @@
         <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG49" t="n">
         <v>41</v>
@@ -6472,10 +6472,10 @@
         <v>3.75</v>
       </c>
       <c r="N50" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P50" t="n">
         <v>1.36</v>
@@ -6585,7 +6585,7 @@
         <v>1.04</v>
       </c>
       <c r="K51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L51" t="n">
         <v>1.22</v>
@@ -6594,10 +6594,10 @@
         <v>4</v>
       </c>
       <c r="N51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P51" t="n">
         <v>1.36</v>
@@ -6826,22 +6826,22 @@
         <v>4.5</v>
       </c>
       <c r="J53" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K53" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L53" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M53" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N53" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O53" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="P53" t="n">
         <v>1.36</v>
@@ -6948,10 +6948,10 @@
         <v>1.36</v>
       </c>
       <c r="J54" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L54" t="n">
         <v>1.25</v>
@@ -7073,7 +7073,7 @@
         <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.4</v>
@@ -7082,10 +7082,10 @@
         <v>2.75</v>
       </c>
       <c r="N55" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O55" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -7103,22 +7103,22 @@
         <v>8</v>
       </c>
       <c r="U55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W55" t="n">
+        <v>34</v>
+      </c>
+      <c r="X55" t="n">
         <v>29</v>
-      </c>
-      <c r="X55" t="n">
-        <v>26</v>
       </c>
       <c r="Y55" t="n">
         <v>41</v>
       </c>
       <c r="Z55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA55" t="n">
         <v>6</v>
@@ -7148,7 +7148,7 @@
         <v>34</v>
       </c>
       <c r="AJ55" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56">
@@ -7183,91 +7183,91 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="J56" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L56" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M56" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="P56" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S56" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T56" t="n">
         <v>6</v>
       </c>
       <c r="U56" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V56" t="n">
         <v>9</v>
       </c>
       <c r="W56" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X56" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y56" t="n">
         <v>34</v>
       </c>
       <c r="Z56" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="n">
         <v>67</v>
       </c>
       <c r="AD56" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE56" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG56" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH56" t="n">
         <v>41</v>
       </c>
-      <c r="AH56" t="n">
-        <v>34</v>
-      </c>
       <c r="AI56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ56" t="n">
         <v>1000</v>
@@ -7320,16 +7320,16 @@
         <v>7</v>
       </c>
       <c r="L57" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M57" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N57" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O57" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P57" t="n">
         <v>1.57</v>
@@ -7392,7 +7392,7 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
     </row>
     <row r="58">
@@ -7427,13 +7427,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H58" t="n">
         <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J58" t="n">
         <v>1.02</v>
@@ -7448,7 +7448,7 @@
         <v>3.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O58" t="n">
         <v>2</v>
@@ -7466,16 +7466,16 @@
         <v>2.1</v>
       </c>
       <c r="T58" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U58" t="n">
         <v>12</v>
       </c>
       <c r="V58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X58" t="n">
         <v>19</v>
@@ -7505,7 +7505,7 @@
         <v>11</v>
       </c>
       <c r="AG58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH58" t="n">
         <v>21</v>
@@ -7549,13 +7549,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J59" t="n">
         <v>1.06</v>
@@ -7588,19 +7588,19 @@
         <v>1.83</v>
       </c>
       <c r="T59" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U59" t="n">
         <v>15</v>
       </c>
       <c r="V59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y59" t="n">
         <v>34</v>
@@ -7621,16 +7621,16 @@
         <v>7.5</v>
       </c>
       <c r="AE59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF59" t="n">
         <v>10</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>9.5</v>
       </c>
       <c r="AG59" t="n">
         <v>21</v>
       </c>
       <c r="AH59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI59" t="n">
         <v>29</v>
@@ -7674,46 +7674,46 @@
         <v>2.05</v>
       </c>
       <c r="H60" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I60" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>1.02</v>
+        <v>23</v>
       </c>
       <c r="K60" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="L60" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M60" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O60" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P60" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q60" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S60" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V60" t="n">
         <v>9.5</v>
@@ -7725,13 +7725,13 @@
         <v>15</v>
       </c>
       <c r="Y60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA60" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB60" t="n">
         <v>11</v>
@@ -7740,7 +7740,7 @@
         <v>29</v>
       </c>
       <c r="AD60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE60" t="n">
         <v>21</v>
@@ -7755,10 +7755,10 @@
         <v>21</v>
       </c>
       <c r="AI60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ60" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61">
@@ -7793,13 +7793,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
@@ -7808,16 +7808,16 @@
         <v>15</v>
       </c>
       <c r="L61" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M61" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N61" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O61" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P61" t="n">
         <v>1.3</v>
@@ -7826,22 +7826,22 @@
         <v>3.4</v>
       </c>
       <c r="R61" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S61" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U61" t="n">
         <v>9</v>
-      </c>
-      <c r="U61" t="n">
-        <v>9.5</v>
       </c>
       <c r="V61" t="n">
         <v>8.5</v>
       </c>
       <c r="W61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X61" t="n">
         <v>13</v>
@@ -7856,7 +7856,7 @@
         <v>8</v>
       </c>
       <c r="AB61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC61" t="n">
         <v>41</v>
@@ -7865,13 +7865,13 @@
         <v>15</v>
       </c>
       <c r="AE61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF61" t="n">
         <v>15</v>
       </c>
       <c r="AG61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="n">
         <v>34</v>
@@ -8287,7 +8287,7 @@
         <v>3.8</v>
       </c>
       <c r="I65" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J65" t="n">
         <v>1.04</v>
@@ -8296,16 +8296,16 @@
         <v>8.5</v>
       </c>
       <c r="L65" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M65" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="N65" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O65" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="P65" t="n">
         <v>1.33</v>
@@ -8314,10 +8314,10 @@
         <v>3.05</v>
       </c>
       <c r="R65" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S65" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T65" t="n">
         <v>8.75</v>
@@ -8347,13 +8347,13 @@
         <v>13</v>
       </c>
       <c r="AC65" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD65" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE65" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF65" t="n">
         <v>13</v>
@@ -8406,7 +8406,7 @@
         <v>1.32</v>
       </c>
       <c r="H66" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I66" t="n">
         <v>8.5</v>
@@ -8421,19 +8421,19 @@
         <v>1.2</v>
       </c>
       <c r="M66" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="N66" t="n">
         <v>1.6</v>
       </c>
       <c r="O66" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="P66" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R66" t="n">
         <v>1.95</v>
@@ -8442,7 +8442,7 @@
         <v>1.75</v>
       </c>
       <c r="T66" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U66" t="n">
         <v>6.5</v>
@@ -8469,7 +8469,7 @@
         <v>21</v>
       </c>
       <c r="AC66" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD66" t="n">
         <v>23</v>
@@ -8490,7 +8490,7 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="67">
@@ -8769,21 +8769,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H69" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I69" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>2.1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>6.2</v>
+      </c>
       <c r="L69" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M69" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="N69" t="n">
         <v>2.15</v>
@@ -8798,61 +8802,61 @@
         <v>2.27</v>
       </c>
       <c r="R69" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="S69" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="T69" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U69" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="V69" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="W69" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X69" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y69" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z69" t="n">
         <v>7.5</v>
       </c>
       <c r="AA69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD69" t="n">
         <v>6.3</v>
       </c>
-      <c r="AB69" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>6</v>
-      </c>
       <c r="AE69" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF69" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG69" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI69" t="n">
         <v>35</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="70">

--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -704,7 +704,7 @@
         <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>8</v>
@@ -820,7 +820,7 @@
         <v>23</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -841,7 +841,7 @@
         <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
@@ -900,10 +900,10 @@
         <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
         <v>1.07</v>
@@ -1034,16 +1034,16 @@
         <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R5" t="n">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1082,7 +1082,7 @@
         <v>67</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1091,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1311,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
         <v>11</v>
@@ -1326,13 +1326,13 @@
         <v>51</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
         <v>41</v>
@@ -1379,31 +1379,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1418,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U8" t="n">
         <v>15</v>
@@ -1427,13 +1427,13 @@
         <v>11</v>
       </c>
       <c r="W8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X8" t="n">
         <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
         <v>10</v>
@@ -1442,16 +1442,16 @@
         <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>41</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>9.5</v>
@@ -1510,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>1.18</v>
@@ -1754,10 +1754,10 @@
         <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.36</v>
@@ -1814,7 +1814,7 @@
         <v>67</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>26</v>
@@ -2001,13 +2001,13 @@
         <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N13" t="n">
         <v>2.1</v>
@@ -2111,91 +2111,91 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U14" t="n">
         <v>7</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>6</v>
-      </c>
       <c r="V14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X14" t="n">
         <v>17</v>
       </c>
       <c r="Y14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH14" t="n">
         <v>41</v>
       </c>
-      <c r="Z14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>67</v>
-      </c>
       <c r="AI14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ14" t="n">
         <v>700</v>
@@ -2376,10 +2376,10 @@
         <v>2.63</v>
       </c>
       <c r="N16" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P16" t="n">
         <v>1.53</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
         <v>1.05</v>
@@ -2504,37 +2504,37 @@
         <v>1.93</v>
       </c>
       <c r="P17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V17" t="n">
         <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
         <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -2546,25 +2546,25 @@
         <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
@@ -2608,10 +2608,10 @@
         <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2727,7 +2727,7 @@
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2772,7 +2772,7 @@
         <v>29</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
         <v>29</v>
@@ -2965,37 +2965,37 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
         <v>2.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N21" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
         <v>2.1</v>
@@ -3004,7 +3004,7 @@
         <v>1.67</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U21" t="n">
         <v>15</v>
@@ -3022,13 +3022,13 @@
         <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA21" t="n">
         <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
         <v>67</v>
@@ -3037,10 +3037,10 @@
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
@@ -3049,10 +3049,10 @@
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="22">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
         <v>1.08</v>
@@ -3126,10 +3126,10 @@
         <v>1.83</v>
       </c>
       <c r="T22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V22" t="n">
         <v>9.5</v>
@@ -3138,13 +3138,13 @@
         <v>21</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
         <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA22" t="n">
         <v>5.5</v>
@@ -3156,7 +3156,7 @@
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>17</v>
@@ -3165,7 +3165,7 @@
         <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH22" t="n">
         <v>29</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H23" t="n">
         <v>4.2</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3467,19 +3467,19 @@
         <v>1.38</v>
       </c>
       <c r="M25" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="N25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O25" t="n">
         <v>1.57</v>
       </c>
       <c r="P25" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R25" t="n">
         <v>1.87</v>
@@ -3488,25 +3488,25 @@
         <v>1.75</v>
       </c>
       <c r="T25" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V25" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X25" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y25" t="n">
         <v>32</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
@@ -3518,19 +3518,19 @@
         <v>90</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE25" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="n">
         <v>50</v>
@@ -3583,7 +3583,7 @@
         <v>1.11</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L26" t="n">
         <v>1.5</v>
@@ -3601,7 +3601,7 @@
         <v>1.57</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R26" t="n">
         <v>2.05</v>
@@ -3610,7 +3610,7 @@
         <v>1.6</v>
       </c>
       <c r="T26" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U26" t="n">
         <v>12</v>
@@ -3622,7 +3622,7 @@
         <v>32</v>
       </c>
       <c r="X26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
         <v>50</v>
@@ -3640,19 +3640,19 @@
         <v>120</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE26" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG26" t="n">
         <v>30</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI26" t="n">
         <v>50</v>
@@ -3834,10 +3834,10 @@
         <v>1.65</v>
       </c>
       <c r="P28" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="R28" t="n">
         <v>1.8</v>
@@ -4082,13 +4082,13 @@
         <v>1.72</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U30" t="n">
         <v>15.5</v>
       </c>
       <c r="V30" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W30" t="n">
         <v>40</v>
@@ -4112,10 +4112,10 @@
         <v>90</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE30" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF30" t="n">
         <v>9.25</v>
@@ -4294,31 +4294,31 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M32" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="N32" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O32" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
         <v>1.78</v>
       </c>
       <c r="T32" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U32" t="n">
         <v>11.5</v>
@@ -4333,10 +4333,10 @@
         <v>22</v>
       </c>
       <c r="Y32" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z32" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA32" t="n">
         <v>5.6</v>
@@ -4348,7 +4348,7 @@
         <v>80</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE32" t="n">
         <v>15</v>
@@ -4532,10 +4532,10 @@
         <v>7</v>
       </c>
       <c r="J34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K34" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L34" t="n">
         <v>1.25</v>
@@ -4654,10 +4654,10 @@
         <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L35" t="n">
         <v>1.3</v>
@@ -4666,10 +4666,10 @@
         <v>3.4</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O35" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P35" t="n">
         <v>1.4</v>
@@ -4767,13 +4767,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
         <v>1.08</v>
@@ -4800,10 +4800,10 @@
         <v>2.5</v>
       </c>
       <c r="R36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T36" t="n">
         <v>6</v>
@@ -4818,13 +4818,13 @@
         <v>17</v>
       </c>
       <c r="X36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
         <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
@@ -4836,7 +4836,7 @@
         <v>67</v>
       </c>
       <c r="AD36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE36" t="n">
         <v>19</v>
@@ -4848,7 +4848,7 @@
         <v>41</v>
       </c>
       <c r="AH36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI36" t="n">
         <v>41</v>
@@ -4889,13 +4889,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J37" t="n">
         <v>1.11</v>
@@ -4967,7 +4967,7 @@
         <v>10</v>
       </c>
       <c r="AG37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH37" t="n">
         <v>23</v>
@@ -5154,10 +5154,10 @@
         <v>2.75</v>
       </c>
       <c r="N39" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P39" t="n">
         <v>1.5</v>
@@ -5255,13 +5255,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
         <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="J40" t="n">
         <v>1.08</v>
@@ -5294,19 +5294,19 @@
         <v>1.78</v>
       </c>
       <c r="T40" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="U40" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="V40" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W40" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X40" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y40" t="n">
         <v>40</v>
@@ -5324,19 +5324,19 @@
         <v>90</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE40" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AF40" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG40" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
         <v>37</v>
@@ -5377,70 +5377,70 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>4.25</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K41" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="L41" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M41" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="N41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P41" t="n">
         <v>1.47</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R41" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S41" t="n">
         <v>1.75</v>
       </c>
       <c r="T41" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="U41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V41" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="W41" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X41" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y41" t="n">
         <v>55</v>
       </c>
-      <c r="Y41" t="n">
-        <v>60</v>
-      </c>
       <c r="Z41" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB41" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC41" t="n">
         <v>100</v>
@@ -5449,19 +5449,19 @@
         <v>6.1</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AF41" t="n">
         <v>8.25</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ41" t="n">
         <v>900</v>
@@ -5727,31 +5727,31 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N44" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O44" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P44" t="n">
         <v>1.44</v>
@@ -5766,13 +5766,13 @@
         <v>1.8</v>
       </c>
       <c r="T44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U44" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="V44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W44" t="n">
         <v>51</v>
@@ -5787,7 +5787,7 @@
         <v>9.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB44" t="n">
         <v>17</v>
@@ -5799,13 +5799,13 @@
         <v>6.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF44" t="n">
         <v>8.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH44" t="n">
         <v>15</v>
@@ -5814,7 +5814,7 @@
         <v>29</v>
       </c>
       <c r="AJ44" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45">
@@ -5849,13 +5849,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H45" t="n">
         <v>3.45</v>
       </c>
       <c r="I45" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5866,24 +5866,24 @@
         <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="O45" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S45" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="T45" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="U45" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V45" t="n">
         <v>10</v>
@@ -5892,19 +5892,19 @@
         <v>35</v>
       </c>
       <c r="X45" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB45" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC45" t="n">
         <v>30</v>
@@ -5919,13 +5919,13 @@
         <v>9.25</v>
       </c>
       <c r="AG45" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH45" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI45" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="n">
         <v>150</v>
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
         <v>1.08</v>
@@ -5987,7 +5987,7 @@
         <v>2.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -6005,13 +6005,13 @@
         <v>7</v>
       </c>
       <c r="U46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V46" t="n">
         <v>10</v>
       </c>
       <c r="W46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X46" t="n">
         <v>21</v>
@@ -6035,16 +6035,16 @@
         <v>8</v>
       </c>
       <c r="AE46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH46" t="n">
         <v>29</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>26</v>
       </c>
       <c r="AI46" t="n">
         <v>41</v>
@@ -6106,10 +6106,10 @@
         <v>2.62</v>
       </c>
       <c r="N47" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O47" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P47" t="n">
         <v>1.5</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
@@ -6219,37 +6219,37 @@
         <v>1.03</v>
       </c>
       <c r="K48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L48" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O48" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P48" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T48" t="n">
+        <v>9</v>
+      </c>
+      <c r="U48" t="n">
         <v>9.5</v>
-      </c>
-      <c r="U48" t="n">
-        <v>10</v>
       </c>
       <c r="V48" t="n">
         <v>8.5</v>
@@ -6264,7 +6264,7 @@
         <v>21</v>
       </c>
       <c r="Z48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA48" t="n">
         <v>8</v>
@@ -6291,10 +6291,10 @@
         <v>29</v>
       </c>
       <c r="AI48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ48" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49">
@@ -6329,7 +6329,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H49" t="n">
         <v>3.2</v>
@@ -6451,19 +6451,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J50" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L50" t="n">
         <v>1.25</v>
@@ -6472,10 +6472,10 @@
         <v>3.75</v>
       </c>
       <c r="N50" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O50" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="P50" t="n">
         <v>1.36</v>
@@ -6490,16 +6490,16 @@
         <v>2.1</v>
       </c>
       <c r="T50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U50" t="n">
         <v>13</v>
       </c>
       <c r="V50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X50" t="n">
         <v>19</v>
@@ -6523,19 +6523,19 @@
         <v>10</v>
       </c>
       <c r="AE50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF50" t="n">
         <v>10</v>
       </c>
       <c r="AG50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH50" t="n">
         <v>21</v>
       </c>
       <c r="AI50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ50" t="n">
         <v>151</v>
@@ -6588,16 +6588,16 @@
         <v>13</v>
       </c>
       <c r="L51" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N51" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O51" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P51" t="n">
         <v>1.36</v>
@@ -6695,25 +6695,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="H52" t="n">
         <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
         <v>1.09</v>
       </c>
       <c r="K52" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M52" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="N52" t="n">
         <v>2.25</v>
@@ -6722,10 +6722,10 @@
         <v>1.62</v>
       </c>
       <c r="P52" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R52" t="n">
         <v>1.83</v>
@@ -6734,25 +6734,25 @@
         <v>1.87</v>
       </c>
       <c r="T52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U52" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W52" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y52" t="n">
         <v>34</v>
       </c>
       <c r="Z52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA52" t="n">
         <v>6</v>
@@ -6767,22 +6767,22 @@
         <v>8</v>
       </c>
       <c r="AE52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF52" t="n">
         <v>12</v>
       </c>
-      <c r="AF52" t="n">
-        <v>11</v>
-      </c>
       <c r="AG52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH52" t="n">
         <v>26</v>
       </c>
-      <c r="AH52" t="n">
-        <v>23</v>
-      </c>
       <c r="AI52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ52" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53">
@@ -6817,13 +6817,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H53" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I53" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J53" t="n">
         <v>1.04</v>
@@ -6832,31 +6832,31 @@
         <v>13</v>
       </c>
       <c r="L53" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M53" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N53" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O53" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R53" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S53" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U53" t="n">
         <v>8</v>
@@ -6865,31 +6865,31 @@
         <v>8.5</v>
       </c>
       <c r="W53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X53" t="n">
         <v>13</v>
       </c>
       <c r="Y53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA53" t="n">
         <v>7.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC53" t="n">
         <v>51</v>
       </c>
       <c r="AD53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF53" t="n">
         <v>15</v>
@@ -6904,7 +6904,7 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54">
@@ -6939,19 +6939,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H54" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J54" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
         <v>1.25</v>
@@ -6972,10 +6972,10 @@
         <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S54" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T54" t="n">
         <v>17</v>
@@ -6987,7 +6987,7 @@
         <v>23</v>
       </c>
       <c r="W54" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="X54" t="n">
         <v>51</v>
@@ -6999,16 +6999,16 @@
         <v>10</v>
       </c>
       <c r="AA54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE54" t="n">
         <v>6</v>
@@ -7017,13 +7017,13 @@
         <v>9</v>
       </c>
       <c r="AG54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH54" t="n">
         <v>13</v>
       </c>
       <c r="AI54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ54" t="n">
         <v>900</v>
@@ -7061,19 +7061,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J55" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L55" t="n">
         <v>1.4</v>
@@ -7082,10 +7082,10 @@
         <v>2.75</v>
       </c>
       <c r="N55" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O55" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -7094,10 +7094,10 @@
         <v>2.5</v>
       </c>
       <c r="R55" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S55" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T55" t="n">
         <v>8</v>
@@ -7112,13 +7112,13 @@
         <v>34</v>
       </c>
       <c r="X55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y55" t="n">
         <v>41</v>
       </c>
       <c r="Z55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA55" t="n">
         <v>6</v>
@@ -7148,7 +7148,7 @@
         <v>34</v>
       </c>
       <c r="AJ55" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56">
@@ -7305,31 +7305,31 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I57" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J57" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L57" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M57" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N57" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O57" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P57" t="n">
         <v>1.57</v>
@@ -7338,52 +7338,52 @@
         <v>2.25</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S57" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
       </c>
       <c r="U57" t="n">
+        <v>13</v>
+      </c>
+      <c r="V57" t="n">
         <v>12</v>
-      </c>
-      <c r="V57" t="n">
-        <v>11</v>
       </c>
       <c r="W57" t="n">
         <v>29</v>
       </c>
       <c r="X57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y57" t="n">
         <v>41</v>
       </c>
       <c r="Z57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA57" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC57" t="n">
         <v>67</v>
       </c>
       <c r="AD57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF57" t="n">
         <v>11</v>
       </c>
       <c r="AG57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH57" t="n">
         <v>26</v>
@@ -7392,7 +7392,7 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="58">
@@ -7558,22 +7558,22 @@
         <v>2.3</v>
       </c>
       <c r="J59" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K59" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="L59" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M59" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N59" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O59" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P59" t="n">
         <v>1.44</v>
@@ -7704,7 +7704,7 @@
         <v>4</v>
       </c>
       <c r="R60" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S60" t="n">
         <v>2.75</v>
@@ -7924,10 +7924,10 @@
         <v>4.1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K62" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L62" t="n">
         <v>1.22</v>
@@ -7936,10 +7936,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O62" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P62" t="n">
         <v>1.33</v>
@@ -8037,19 +8037,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H63" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J63" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L63" t="n">
         <v>1.33</v>
@@ -8058,10 +8058,10 @@
         <v>3.25</v>
       </c>
       <c r="N63" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O63" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P63" t="n">
         <v>1.44</v>
@@ -8079,7 +8079,7 @@
         <v>6.5</v>
       </c>
       <c r="U63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V63" t="n">
         <v>9</v>
@@ -8094,7 +8094,7 @@
         <v>29</v>
       </c>
       <c r="Z63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA63" t="n">
         <v>6.5</v>
@@ -8159,13 +8159,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="H64" t="n">
         <v>3.45</v>
       </c>
       <c r="I64" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J64" t="n">
         <v>1.04</v>
@@ -8186,34 +8186,34 @@
         <v>2.1</v>
       </c>
       <c r="P64" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Q64" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R64" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S64" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="T64" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="U64" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W64" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y64" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z64" t="n">
         <v>8.25</v>
@@ -8228,25 +8228,25 @@
         <v>45</v>
       </c>
       <c r="AD64" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH64" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ64" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65">
@@ -8281,46 +8281,46 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="H65" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I65" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J65" t="n">
         <v>1.04</v>
       </c>
       <c r="K65" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L65" t="n">
         <v>1.2</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="N65" t="n">
         <v>1.62</v>
       </c>
       <c r="O65" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="P65" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Q65" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R65" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S65" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T65" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U65" t="n">
         <v>9.5</v>
@@ -8329,43 +8329,43 @@
         <v>8.25</v>
       </c>
       <c r="W65" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X65" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y65" t="n">
         <v>21</v>
       </c>
       <c r="Z65" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA65" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AB65" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC65" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD65" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE65" t="n">
         <v>25</v>
       </c>
       <c r="AF65" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG65" t="n">
         <v>60</v>
       </c>
       <c r="AH65" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI65" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ65" t="n">
         <v>300</v>
@@ -8662,31 +8662,31 @@
         <v>19</v>
       </c>
       <c r="L68" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M68" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N68" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O68" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P68" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q68" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R68" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S68" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U68" t="n">
         <v>41</v>
@@ -8722,19 +8722,19 @@
         <v>8.5</v>
       </c>
       <c r="AF68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH68" t="n">
         <v>11</v>
       </c>
       <c r="AI68" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ68" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">

--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
@@ -680,16 +680,16 @@
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
         <v>7.5</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V2" t="n">
         <v>8.5</v>
@@ -725,13 +725,13 @@
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="n">
         <v>251</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.13</v>
@@ -784,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N3" t="n">
         <v>2.75</v>
@@ -814,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
         <v>23</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
         <v>19</v>
@@ -841,13 +841,13 @@
         <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="n">
         <v>34</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -954,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>81</v>
@@ -963,10 +963,10 @@
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>67</v>
@@ -1013,31 +1013,31 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N5" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1046,16 +1046,16 @@
         <v>2.63</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V5" t="n">
         <v>9</v>
@@ -1067,7 +1067,7 @@
         <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
         <v>8.5</v>
@@ -1079,7 +1079,7 @@
         <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
@@ -1094,13 +1094,13 @@
         <v>41</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
@@ -1138,7 +1138,7 @@
         <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
         <v>2.45</v>
@@ -1162,10 +1162,10 @@
         <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
         <v>2.5</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1290,16 +1290,16 @@
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
         <v>7.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1308,7 +1308,7 @@
         <v>15</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
         <v>23</v>
@@ -1335,7 +1335,7 @@
         <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH7" t="n">
         <v>34</v>
@@ -1388,10 +1388,10 @@
         <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>1.3</v>
@@ -1400,10 +1400,10 @@
         <v>3.4</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>3.7</v>
@@ -1516,16 +1516,16 @@
         <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P9" t="n">
         <v>1.3</v>
@@ -1540,10 +1540,10 @@
         <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
@@ -1558,10 +1558,10 @@
         <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB9" t="n">
         <v>13</v>
@@ -1585,7 +1585,7 @@
         <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
         <v>151</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.08</v>
@@ -1888,10 +1888,10 @@
         <v>2.75</v>
       </c>
       <c r="N12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P12" t="n">
         <v>1.5</v>
@@ -1900,16 +1900,16 @@
         <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T12" t="n">
         <v>6</v>
       </c>
       <c r="U12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V12" t="n">
         <v>9</v>
@@ -1930,19 +1930,19 @@
         <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>67</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>51</v>
@@ -2001,7 +2001,7 @@
         <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2031,7 +2031,7 @@
         <v>7.5</v>
       </c>
       <c r="U13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V13" t="n">
         <v>10</v>
@@ -2111,31 +2111,31 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P14" t="n">
         <v>1.5</v>
@@ -2159,10 +2159,10 @@
         <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
         <v>34</v>
@@ -2177,22 +2177,22 @@
         <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>26</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH14" t="n">
         <v>51</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>41</v>
       </c>
       <c r="AI14" t="n">
         <v>51</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
         <v>5.75</v>
@@ -2305,7 +2305,7 @@
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
@@ -2355,19 +2355,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
         <v>1.44</v>
@@ -2394,7 +2394,7 @@
         <v>1.67</v>
       </c>
       <c r="T16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U16" t="n">
         <v>8</v>
@@ -2403,7 +2403,7 @@
         <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
@@ -2412,7 +2412,7 @@
         <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="n">
         <v>6.5</v>
@@ -2424,10 +2424,10 @@
         <v>67</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
         <v>15</v>
@@ -2439,7 +2439,7 @@
         <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
@@ -2614,22 +2614,22 @@
         <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O18" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="P18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R18" t="n">
         <v>1.73</v>
@@ -2647,7 +2647,7 @@
         <v>9.5</v>
       </c>
       <c r="W18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X18" t="n">
         <v>19</v>
@@ -2656,7 +2656,7 @@
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2668,7 +2668,7 @@
         <v>41</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2766,13 +2766,13 @@
         <v>15</v>
       </c>
       <c r="V19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
         <v>29</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
         <v>29</v>
@@ -2790,7 +2790,7 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.1</v>
@@ -2876,16 +2876,16 @@
         <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
         <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V20" t="n">
         <v>10</v>
@@ -2924,10 +2924,10 @@
         <v>41</v>
       </c>
       <c r="AH20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ20" t="n">
         <v>101</v>
@@ -2965,19 +2965,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J21" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -2986,10 +2986,10 @@
         <v>2.63</v>
       </c>
       <c r="N21" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
@@ -3007,7 +3007,7 @@
         <v>8.5</v>
       </c>
       <c r="U21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V21" t="n">
         <v>13</v>
@@ -3037,13 +3037,13 @@
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF21" t="n">
         <v>9.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
@@ -3087,37 +3087,37 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N22" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="O22" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R22" t="n">
         <v>1.83</v>
@@ -3129,25 +3129,25 @@
         <v>7</v>
       </c>
       <c r="U22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
         <v>8</v>
       </c>
       <c r="AA22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
@@ -3159,7 +3159,7 @@
         <v>10</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
         <v>13</v>
@@ -3168,13 +3168,13 @@
         <v>41</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
@@ -3215,31 +3215,31 @@
         <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O23" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R23" t="n">
         <v>1.83</v>
@@ -3248,13 +3248,13 @@
         <v>1.83</v>
       </c>
       <c r="T23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U23" t="n">
         <v>7</v>
       </c>
       <c r="V23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W23" t="n">
         <v>9.5</v>
@@ -3269,7 +3269,7 @@
         <v>12</v>
       </c>
       <c r="AA23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB23" t="n">
         <v>17</v>
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.03</v>
@@ -3346,16 +3346,16 @@
         <v>17</v>
       </c>
       <c r="L24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O24" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P24" t="n">
         <v>1.29</v>
@@ -3364,22 +3364,22 @@
         <v>3.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V24" t="n">
         <v>8.5</v>
       </c>
       <c r="W24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>
@@ -3388,7 +3388,7 @@
         <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
         <v>9.5</v>
@@ -3400,22 +3400,22 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ24" t="n">
         <v>251</v>
@@ -3453,18 +3453,18 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H25" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
         <v>2.57</v>
@@ -3476,67 +3476,67 @@
         <v>1.57</v>
       </c>
       <c r="P25" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R25" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S25" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T25" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U25" t="n">
         <v>8.75</v>
       </c>
       <c r="V25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W25" t="n">
         <v>18</v>
       </c>
       <c r="X25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE25" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>20</v>
-      </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI25" t="n">
         <v>50</v>
       </c>
       <c r="AJ25" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26">
@@ -3601,7 +3601,7 @@
         <v>1.57</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
         <v>2.05</v>
@@ -3610,19 +3610,19 @@
         <v>1.6</v>
       </c>
       <c r="T26" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U26" t="n">
         <v>12</v>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W26" t="n">
         <v>32</v>
       </c>
       <c r="X26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y26" t="n">
         <v>50</v>
@@ -3640,19 +3640,19 @@
         <v>120</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE26" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG26" t="n">
         <v>30</v>
       </c>
       <c r="AH26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
         <v>50</v>
@@ -3811,21 +3811,21 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M28" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="N28" t="n">
         <v>1.98</v>
@@ -3834,28 +3834,28 @@
         <v>1.65</v>
       </c>
       <c r="P28" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R28" t="n">
         <v>1.8</v>
       </c>
       <c r="S28" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U28" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X28" t="n">
         <v>16.5</v>
@@ -3870,31 +3870,31 @@
         <v>6.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF28" t="n">
         <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="n">
         <v>35</v>
       </c>
       <c r="AI28" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ28" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29">
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.2</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I30" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -4070,61 +4070,61 @@
         <v>1.55</v>
       </c>
       <c r="P30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R30" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T30" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U30" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V30" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="W30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X30" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y30" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD30" t="n">
         <v>6.1</v>
       </c>
-      <c r="AB30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>6.3</v>
-      </c>
       <c r="AE30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI30" t="n">
         <v>37</v>
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="H32" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="I32" t="n">
         <v>3.1</v>
@@ -4306,58 +4306,58 @@
         <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S32" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T32" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="V32" t="n">
         <v>9.25</v>
       </c>
       <c r="W32" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
         <v>35</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB32" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE32" t="n">
         <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH32" t="n">
         <v>32</v>
@@ -4366,7 +4366,7 @@
         <v>45</v>
       </c>
       <c r="AJ32" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33">
@@ -4532,10 +4532,10 @@
         <v>7</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L34" t="n">
         <v>1.25</v>
@@ -4645,13 +4645,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H35" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J35" t="n">
         <v>1.06</v>
@@ -4678,16 +4678,16 @@
         <v>2.75</v>
       </c>
       <c r="R35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T35" t="n">
         <v>6</v>
       </c>
       <c r="U35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V35" t="n">
         <v>8.5</v>
@@ -4705,13 +4705,13 @@
         <v>9</v>
       </c>
       <c r="AA35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB35" t="n">
         <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD35" t="n">
         <v>17</v>
@@ -4723,13 +4723,13 @@
         <v>23</v>
       </c>
       <c r="AG35" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="n">
         <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ35" t="n">
         <v>501</v>
@@ -4767,19 +4767,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J36" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L36" t="n">
         <v>1.4</v>
@@ -4806,7 +4806,7 @@
         <v>1.75</v>
       </c>
       <c r="T36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U36" t="n">
         <v>8.5</v>
@@ -4818,7 +4818,7 @@
         <v>17</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>34</v>
@@ -4833,7 +4833,7 @@
         <v>17</v>
       </c>
       <c r="AC36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD36" t="n">
         <v>9.5</v>
@@ -4842,19 +4842,19 @@
         <v>19</v>
       </c>
       <c r="AF36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
         <v>41</v>
       </c>
       <c r="AH36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI36" t="n">
         <v>41</v>
       </c>
       <c r="AJ36" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37">
@@ -4889,13 +4889,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J37" t="n">
         <v>1.11</v>
@@ -4928,7 +4928,7 @@
         <v>1.62</v>
       </c>
       <c r="T37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U37" t="n">
         <v>15</v>
@@ -4937,13 +4937,13 @@
         <v>13</v>
       </c>
       <c r="W37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X37" t="n">
         <v>34</v>
       </c>
       <c r="Y37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="n">
         <v>6</v>
@@ -4952,16 +4952,16 @@
         <v>6</v>
       </c>
       <c r="AB37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="n">
         <v>81</v>
       </c>
       <c r="AD37" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF37" t="n">
         <v>10</v>
@@ -5011,37 +5011,37 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
         <v>4.75</v>
       </c>
       <c r="J38" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N38" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R38" t="n">
         <v>2.1</v>
@@ -5068,7 +5068,7 @@
         <v>34</v>
       </c>
       <c r="Z38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA38" t="n">
         <v>6.5</v>
@@ -5083,7 +5083,7 @@
         <v>10</v>
       </c>
       <c r="AE38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF38" t="n">
         <v>17</v>
@@ -5133,13 +5133,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H39" t="n">
         <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J39" t="n">
         <v>1.08</v>
@@ -5154,10 +5154,10 @@
         <v>2.75</v>
       </c>
       <c r="N39" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O39" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P39" t="n">
         <v>1.5</v>
@@ -5166,16 +5166,16 @@
         <v>2.5</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S39" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T39" t="n">
         <v>9.5</v>
       </c>
       <c r="U39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V39" t="n">
         <v>13</v>
@@ -5190,7 +5190,7 @@
         <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA39" t="n">
         <v>6</v>
@@ -5205,7 +5205,7 @@
         <v>6.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF39" t="n">
         <v>9.5</v>
@@ -5276,7 +5276,7 @@
         <v>2.75</v>
       </c>
       <c r="N40" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O40" t="n">
         <v>1.62</v>
@@ -5306,7 +5306,7 @@
         <v>30</v>
       </c>
       <c r="X40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y40" t="n">
         <v>40</v>
@@ -5324,7 +5324,7 @@
         <v>90</v>
       </c>
       <c r="AD40" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE40" t="n">
         <v>11</v>
@@ -5377,25 +5377,25 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.25</v>
+        <v>3.85</v>
       </c>
       <c r="H41" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="J41" t="n">
         <v>1.08</v>
       </c>
       <c r="K41" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M41" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="N41" t="n">
         <v>2.1</v>
@@ -5410,61 +5410,61 @@
         <v>2.5</v>
       </c>
       <c r="R41" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S41" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T41" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U41" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V41" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="W41" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="X41" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="n">
         <v>50</v>
       </c>
-      <c r="Y41" t="n">
-        <v>55</v>
-      </c>
       <c r="Z41" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB41" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AF41" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AH41" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI41" t="n">
         <v>32</v>
       </c>
       <c r="AJ41" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42">
@@ -5727,94 +5727,94 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H44" t="n">
         <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="J44" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L44" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M44" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N44" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="O44" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R44" t="n">
         <v>1.75</v>
       </c>
-      <c r="P44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.95</v>
-      </c>
       <c r="S44" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U44" t="n">
         <v>21</v>
       </c>
       <c r="V44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X44" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Y44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z44" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA44" t="n">
         <v>6.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC44" t="n">
         <v>51</v>
       </c>
       <c r="AD44" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF44" t="n">
         <v>8.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH44" t="n">
         <v>15</v>
       </c>
       <c r="AI44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ44" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45">
@@ -5863,7 +5863,7 @@
         <v>1.15</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="N45" t="n">
         <v>1.47</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L46" t="n">
         <v>1.4</v>
@@ -5987,7 +5987,7 @@
         <v>2.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -5996,19 +5996,19 @@
         <v>2.5</v>
       </c>
       <c r="R46" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W46" t="n">
         <v>21</v>
@@ -6023,7 +6023,7 @@
         <v>8</v>
       </c>
       <c r="AA46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
         <v>17</v>
@@ -6032,7 +6032,7 @@
         <v>51</v>
       </c>
       <c r="AD46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE46" t="n">
         <v>15</v>
@@ -6109,7 +6109,7 @@
         <v>2.4</v>
       </c>
       <c r="O47" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P47" t="n">
         <v>1.5</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J48" t="n">
         <v>1.03</v>
@@ -6222,40 +6222,40 @@
         <v>15</v>
       </c>
       <c r="L48" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M48" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N48" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="O48" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P48" t="n">
         <v>1.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S48" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U48" t="n">
         <v>9</v>
-      </c>
-      <c r="U48" t="n">
-        <v>9.5</v>
       </c>
       <c r="V48" t="n">
         <v>8.5</v>
       </c>
       <c r="W48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X48" t="n">
         <v>13</v>
@@ -6270,7 +6270,7 @@
         <v>8</v>
       </c>
       <c r="AB48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC48" t="n">
         <v>41</v>
@@ -6279,16 +6279,16 @@
         <v>15</v>
       </c>
       <c r="AE48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI48" t="n">
         <v>34</v>
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J49" t="n">
         <v>1.06</v>
@@ -6356,7 +6356,7 @@
         <v>1.83</v>
       </c>
       <c r="P49" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q49" t="n">
         <v>2.75</v>
@@ -6371,19 +6371,19 @@
         <v>7.5</v>
       </c>
       <c r="U49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V49" t="n">
         <v>9</v>
       </c>
       <c r="W49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X49" t="n">
         <v>17</v>
       </c>
       <c r="Y49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z49" t="n">
         <v>9.5</v>
@@ -6392,7 +6392,7 @@
         <v>6</v>
       </c>
       <c r="AB49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC49" t="n">
         <v>51</v>
@@ -6413,10 +6413,10 @@
         <v>29</v>
       </c>
       <c r="AI49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ49" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50">
@@ -6573,13 +6573,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J51" t="n">
         <v>1.04</v>
@@ -6600,40 +6600,40 @@
         <v>2.1</v>
       </c>
       <c r="P51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q51" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R51" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T51" t="n">
+        <v>9</v>
+      </c>
+      <c r="U51" t="n">
+        <v>10</v>
+      </c>
+      <c r="V51" t="n">
         <v>8.5</v>
       </c>
-      <c r="U51" t="n">
-        <v>11</v>
-      </c>
-      <c r="V51" t="n">
-        <v>9</v>
-      </c>
       <c r="W51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X51" t="n">
         <v>15</v>
       </c>
       <c r="Y51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB51" t="n">
         <v>12</v>
@@ -6645,7 +6645,7 @@
         <v>13</v>
       </c>
       <c r="AE51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF51" t="n">
         <v>13</v>
@@ -6654,7 +6654,7 @@
         <v>41</v>
       </c>
       <c r="AH51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI51" t="n">
         <v>34</v>
@@ -6942,10 +6942,10 @@
         <v>7</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I54" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="J54" t="n">
         <v>1.06</v>
@@ -6960,10 +6960,10 @@
         <v>3.75</v>
       </c>
       <c r="N54" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P54" t="n">
         <v>1.36</v>
@@ -7011,7 +7011,7 @@
         <v>6.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF54" t="n">
         <v>9</v>
@@ -7064,10 +7064,10 @@
         <v>3.1</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I55" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
@@ -7076,16 +7076,16 @@
         <v>9</v>
       </c>
       <c r="L55" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M55" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -7094,13 +7094,13 @@
         <v>2.5</v>
       </c>
       <c r="R55" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S55" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="T55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U55" t="n">
         <v>15</v>
@@ -7118,13 +7118,13 @@
         <v>41</v>
       </c>
       <c r="Z55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA55" t="n">
         <v>6</v>
       </c>
       <c r="AB55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC55" t="n">
         <v>51</v>
@@ -7136,10 +7136,10 @@
         <v>11</v>
       </c>
       <c r="AF55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH55" t="n">
         <v>21</v>
@@ -7148,7 +7148,7 @@
         <v>34</v>
       </c>
       <c r="AJ55" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56">
@@ -7320,16 +7320,16 @@
         <v>6.5</v>
       </c>
       <c r="L57" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M57" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N57" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O57" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="P57" t="n">
         <v>1.57</v>
@@ -7341,7 +7341,7 @@
         <v>2.1</v>
       </c>
       <c r="S57" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -7704,7 +7704,7 @@
         <v>4</v>
       </c>
       <c r="R60" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S60" t="n">
         <v>2.75</v>
@@ -7793,13 +7793,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I61" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
@@ -7808,16 +7808,16 @@
         <v>15</v>
       </c>
       <c r="L61" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M61" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N61" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O61" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P61" t="n">
         <v>1.3</v>
@@ -7835,7 +7835,7 @@
         <v>8.5</v>
       </c>
       <c r="U61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V61" t="n">
         <v>8.5</v>
@@ -7844,7 +7844,7 @@
         <v>13</v>
       </c>
       <c r="X61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y61" t="n">
         <v>21</v>
@@ -7862,7 +7862,7 @@
         <v>41</v>
       </c>
       <c r="AD61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE61" t="n">
         <v>26</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H63" t="n">
         <v>3</v>
@@ -8159,13 +8159,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="H64" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J64" t="n">
         <v>1.04</v>
@@ -8174,43 +8174,43 @@
         <v>8.25</v>
       </c>
       <c r="L64" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M64" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N64" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O64" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P64" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q64" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R64" t="n">
         <v>1.57</v>
       </c>
       <c r="S64" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="T64" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="U64" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V64" t="n">
         <v>9.5</v>
       </c>
       <c r="W64" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X64" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y64" t="n">
         <v>24</v>
@@ -8219,16 +8219,16 @@
         <v>8.25</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB64" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC64" t="n">
         <v>45</v>
       </c>
       <c r="AD64" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE64" t="n">
         <v>14</v>
@@ -8237,16 +8237,16 @@
         <v>9.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH64" t="n">
         <v>19</v>
       </c>
       <c r="AI64" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ64" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65">
@@ -8284,7 +8284,7 @@
         <v>1.72</v>
       </c>
       <c r="H65" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I65" t="n">
         <v>4.1</v>
@@ -8299,19 +8299,19 @@
         <v>1.2</v>
       </c>
       <c r="M65" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="N65" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O65" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="P65" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Q65" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R65" t="n">
         <v>1.62</v>
@@ -8323,13 +8323,13 @@
         <v>9</v>
       </c>
       <c r="U65" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V65" t="n">
         <v>8.25</v>
       </c>
       <c r="W65" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X65" t="n">
         <v>12.5</v>
@@ -8341,7 +8341,7 @@
         <v>8.75</v>
       </c>
       <c r="AA65" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB65" t="n">
         <v>13.5</v>
@@ -8350,19 +8350,19 @@
         <v>50</v>
       </c>
       <c r="AD65" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE65" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF65" t="n">
         <v>13.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AH65" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI65" t="n">
         <v>35</v>
@@ -8403,31 +8403,31 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H66" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I66" t="n">
         <v>8.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K66" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L66" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M66" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="N66" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O66" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="P66" t="n">
         <v>1.31</v>
@@ -8436,16 +8436,16 @@
         <v>3.15</v>
       </c>
       <c r="R66" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S66" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T66" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="U66" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="V66" t="n">
         <v>8.5</v>
@@ -8457,22 +8457,22 @@
         <v>10.75</v>
       </c>
       <c r="Y66" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z66" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA66" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB66" t="n">
         <v>21</v>
       </c>
       <c r="AC66" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE66" t="n">
         <v>60</v>
@@ -8490,7 +8490,7 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="67">
@@ -8891,87 +8891,87 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="H70" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="I70" t="n">
-        <v>3.65</v>
+        <v>4.25</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M70" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="N70" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="O70" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P70" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="R70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S70" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T70" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U70" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="V70" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W70" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="X70" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z70" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AA70" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AB70" t="n">
         <v>14.5</v>
       </c>
       <c r="AC70" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG70" t="n">
         <v>80</v>
       </c>
-      <c r="AD70" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>60</v>
-      </c>
       <c r="AH70" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI70" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ70" t="n">
         <v>700</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -1022,40 +1022,40 @@
         <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N5" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V5" t="n">
         <v>9</v>
@@ -1067,10 +1067,10 @@
         <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1079,7 +1079,7 @@
         <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
@@ -1094,13 +1094,13 @@
         <v>41</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6">
@@ -1507,7 +1507,7 @@
         <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1522,22 +1522,22 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T9" t="n">
         <v>9.5</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="J10" t="n">
         <v>1.05</v>
@@ -1638,16 +1638,16 @@
         <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1656,28 +1656,28 @@
         <v>2.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W10" t="n">
+        <v>26</v>
+      </c>
+      <c r="X10" t="n">
         <v>21</v>
       </c>
-      <c r="X10" t="n">
-        <v>17</v>
-      </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
@@ -1686,25 +1686,25 @@
         <v>6.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>41</v>
       </c>
       <c r="AD10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
         <v>10</v>
       </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>29</v>
@@ -1745,37 +1745,37 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
         <v>2.1</v>
@@ -1784,7 +1784,7 @@
         <v>1.67</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U11" t="n">
         <v>7</v>
@@ -1802,10 +1802,10 @@
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
@@ -1817,7 +1817,7 @@
         <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
         <v>17</v>
@@ -1867,19 +1867,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
         <v>1.08</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.4</v>
@@ -1888,10 +1888,10 @@
         <v>2.75</v>
       </c>
       <c r="N12" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
         <v>1.5</v>
@@ -1900,10 +1900,10 @@
         <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T12" t="n">
         <v>6</v>
@@ -1930,7 +1930,7 @@
         <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
         <v>67</v>
@@ -1951,7 +1951,7 @@
         <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
         <v>351</v>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
         <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2046,7 +2046,7 @@
         <v>34</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
@@ -2132,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P14" t="n">
         <v>1.5</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
         <v>5.75</v>
@@ -2254,10 +2254,10 @@
         <v>2.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P15" t="n">
         <v>1.57</v>
@@ -2284,7 +2284,7 @@
         <v>12</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
         <v>41</v>
@@ -2305,7 +2305,7 @@
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
@@ -2364,10 +2364,10 @@
         <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
         <v>1.44</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
@@ -2653,7 +2653,7 @@
         <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
         <v>9.5</v>
@@ -2668,10 +2668,10 @@
         <v>41</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>12</v>
@@ -5727,13 +5727,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J44" t="n">
         <v>1.05</v>
@@ -5742,16 +5742,16 @@
         <v>11</v>
       </c>
       <c r="L44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N44" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O44" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -5778,7 +5778,7 @@
         <v>41</v>
       </c>
       <c r="X44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y44" t="n">
         <v>34</v>
@@ -5787,7 +5787,7 @@
         <v>11</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB44" t="n">
         <v>15</v>
@@ -5799,13 +5799,13 @@
         <v>7.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF44" t="n">
         <v>8.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH44" t="n">
         <v>15</v>
@@ -5849,13 +5849,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="H45" t="n">
         <v>3.45</v>
       </c>
       <c r="I45" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5883,19 +5883,19 @@
         <v>13.5</v>
       </c>
       <c r="U45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W45" t="n">
+        <v>32</v>
+      </c>
+      <c r="X45" t="n">
         <v>18</v>
       </c>
-      <c r="V45" t="n">
-        <v>10</v>
-      </c>
-      <c r="W45" t="n">
-        <v>35</v>
-      </c>
-      <c r="X45" t="n">
-        <v>18.5</v>
-      </c>
       <c r="Y45" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z45" t="n">
         <v>16</v>
@@ -5907,25 +5907,25 @@
         <v>10.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD45" t="n">
         <v>12.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH45" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ45" t="n">
         <v>150</v>
@@ -5969,13 +5969,13 @@
         <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L46" t="n">
         <v>1.4</v>
@@ -6011,10 +6011,10 @@
         <v>9.5</v>
       </c>
       <c r="W46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="n">
         <v>34</v>
@@ -6041,7 +6041,7 @@
         <v>12</v>
       </c>
       <c r="AG46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH46" t="n">
         <v>29</v>
@@ -6085,19 +6085,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J47" t="n">
         <v>1.1</v>
       </c>
       <c r="K47" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="L47" t="n">
         <v>1.45</v>
@@ -6115,25 +6115,25 @@
         <v>1.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R47" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S47" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U47" t="n">
         <v>11</v>
       </c>
       <c r="V47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X47" t="n">
         <v>23</v>
@@ -6142,7 +6142,7 @@
         <v>41</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
@@ -6157,7 +6157,7 @@
         <v>7</v>
       </c>
       <c r="AE47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF47" t="n">
         <v>11</v>
@@ -6166,7 +6166,7 @@
         <v>29</v>
       </c>
       <c r="AH47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI47" t="n">
         <v>41</v>
@@ -6228,13 +6228,13 @@
         <v>4.33</v>
       </c>
       <c r="N48" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O48" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P48" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q48" t="n">
         <v>3.25</v>
@@ -6356,7 +6356,7 @@
         <v>1.83</v>
       </c>
       <c r="P49" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q49" t="n">
         <v>2.75</v>
@@ -8891,27 +8891,27 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="H70" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I70" t="n">
-        <v>4.25</v>
+        <v>3.7</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M70" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="N70" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="O70" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P70" t="n">
         <v>1.5</v>
@@ -8920,61 +8920,61 @@
         <v>2.25</v>
       </c>
       <c r="R70" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S70" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T70" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="U70" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V70" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W70" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X70" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z70" t="n">
         <v>7.3</v>
       </c>
       <c r="AA70" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB70" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC70" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD70" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE70" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AF70" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG70" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AH70" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI70" t="n">
         <v>50</v>
       </c>
       <c r="AJ70" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71">
@@ -9009,72 +9009,72 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I71" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M71" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="N71" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O71" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P71" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="R71" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S71" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T71" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U71" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="V71" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W71" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="X71" t="n">
         <v>15</v>
       </c>
       <c r="Y71" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z71" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA71" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AB71" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC71" t="n">
         <v>120</v>
       </c>
       <c r="AD71" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AE71" t="n">
         <v>30</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.67</v>
@@ -1156,22 +1156,22 @@
         <v>2.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
         <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
         <v>6.5</v>
@@ -1180,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="V6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>41</v>
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
         <v>101</v>
@@ -1207,13 +1207,13 @@
         <v>5.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
         <v>29</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" t="n">
         <v>1.25</v>
@@ -1662,28 +1662,28 @@
         <v>2.1</v>
       </c>
       <c r="T10" t="n">
+        <v>9</v>
+      </c>
+      <c r="U10" t="n">
+        <v>12</v>
+      </c>
+      <c r="V10" t="n">
         <v>9.5</v>
       </c>
-      <c r="U10" t="n">
-        <v>13</v>
-      </c>
-      <c r="V10" t="n">
-        <v>10</v>
-      </c>
       <c r="W10" t="n">
+        <v>23</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="n">
         <v>26</v>
       </c>
-      <c r="X10" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>29</v>
-      </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1695,13 +1695,13 @@
         <v>9.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
@@ -1876,34 +1876,34 @@
         <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T12" t="n">
         <v>6</v>
@@ -1918,19 +1918,19 @@
         <v>15</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>67</v>
@@ -1945,13 +1945,13 @@
         <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="n">
         <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ12" t="n">
         <v>351</v>
@@ -2004,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>2.1</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.1</v>
@@ -2254,10 +2254,10 @@
         <v>2.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
         <v>1.57</v>
@@ -2272,19 +2272,19 @@
         <v>1.5</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V15" t="n">
         <v>9.5</v>
       </c>
       <c r="W15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
         <v>41</v>
@@ -2293,10 +2293,10 @@
         <v>6.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>101</v>
@@ -2305,13 +2305,13 @@
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="n">
         <v>51</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
         <v>1.08</v>
@@ -2376,10 +2376,10 @@
         <v>2.63</v>
       </c>
       <c r="N16" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
         <v>1.53</v>
@@ -2400,10 +2400,10 @@
         <v>8</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
@@ -2424,10 +2424,10 @@
         <v>67</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>15</v>
@@ -2620,10 +2620,10 @@
         <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -5727,13 +5727,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J44" t="n">
         <v>1.05</v>
@@ -5742,16 +5742,16 @@
         <v>11</v>
       </c>
       <c r="L44" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M44" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O44" t="n">
         <v>1.9</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.95</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -5778,7 +5778,7 @@
         <v>41</v>
       </c>
       <c r="X44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y44" t="n">
         <v>34</v>
@@ -5787,25 +5787,25 @@
         <v>11</v>
       </c>
       <c r="AA44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB44" t="n">
         <v>15</v>
       </c>
       <c r="AC44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD44" t="n">
         <v>7.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF44" t="n">
         <v>8.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH44" t="n">
         <v>15</v>
@@ -5849,13 +5849,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="H45" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I45" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1.15</v>
       </c>
       <c r="M45" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="N45" t="n">
         <v>1.47</v>
@@ -5874,43 +5874,43 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S45" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="T45" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="U45" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="V45" t="n">
         <v>9.75</v>
       </c>
       <c r="W45" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X45" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AB45" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC45" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AD45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE45" t="n">
         <v>16</v>
@@ -5919,10 +5919,10 @@
         <v>9.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH45" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI45" t="n">
         <v>19.5</v>
@@ -6344,16 +6344,16 @@
         <v>10</v>
       </c>
       <c r="L49" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N49" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P49" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-04.xlsx
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
         <v>1.14</v>
@@ -1156,16 +1156,16 @@
         <v>2.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
         <v>2.38</v>
@@ -1177,16 +1177,16 @@
         <v>6.5</v>
       </c>
       <c r="U6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V6" t="n">
         <v>13</v>
       </c>
       <c r="W6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>51</v>
@@ -1207,10 +1207,10 @@
         <v>5.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>26</v>
@@ -2355,19 +2355,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
         <v>1.44</v>
@@ -2394,10 +2394,10 @@
         <v>1.67</v>
       </c>
       <c r="T16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V16" t="n">
         <v>9.5</v>
@@ -2409,7 +2409,7 @@
         <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="n">
         <v>7</v>
@@ -5742,16 +5742,16 @@
         <v>11</v>
       </c>
       <c r="L44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O44" t="n">
         <v>1.95</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.9</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -5766,10 +5766,10 @@
         <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V44" t="n">
         <v>13</v>
@@ -5793,7 +5793,7 @@
         <v>15</v>
       </c>
       <c r="AC44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD44" t="n">
         <v>7.5</v>
@@ -5849,13 +5849,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="H45" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I45" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5863,48 +5863,48 @@
         <v>1.15</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="N45" t="n">
         <v>1.47</v>
       </c>
       <c r="O45" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S45" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="T45" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="U45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V45" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="W45" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X45" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y45" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA45" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AC45" t="n">
         <v>29</v>
@@ -5913,19 +5913,19 @@
         <v>12</v>
       </c>
       <c r="AE45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH45" t="n">
         <v>16</v>
       </c>
-      <c r="AF45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>18</v>
-      </c>
       <c r="AI45" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ45" t="n">
         <v>150</v>
@@ -6329,19 +6329,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H49" t="n">
         <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J49" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L49" t="n">
         <v>1.29</v>
@@ -6350,10 +6350,10 @@
         <v>3.5</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O49" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P49" t="n">
         <v>1.4</v>
@@ -6362,22 +6362,22 @@
         <v>2.75</v>
       </c>
       <c r="R49" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S49" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V49" t="n">
         <v>9</v>
       </c>
       <c r="W49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X49" t="n">
         <v>17</v>
@@ -6386,16 +6386,16 @@
         <v>26</v>
       </c>
       <c r="Z49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA49" t="n">
         <v>6</v>
       </c>
       <c r="AB49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD49" t="n">
         <v>11</v>
@@ -6413,10 +6413,10 @@
         <v>29</v>
       </c>
       <c r="AI49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ49" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50">
